--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73121620783335</v>
+        <v>20.73121620783337</v>
       </c>
       <c r="C2">
-        <v>15.33228159438006</v>
+        <v>15.33228159438009</v>
       </c>
       <c r="D2">
-        <v>4.193089358750266</v>
+        <v>4.193089358750195</v>
       </c>
       <c r="F2">
-        <v>18.16105711038276</v>
+        <v>18.16105711038269</v>
       </c>
       <c r="G2">
-        <v>13.5111780237788</v>
+        <v>13.51117802377872</v>
       </c>
       <c r="H2">
-        <v>11.04642103386872</v>
+        <v>11.04642103386863</v>
       </c>
       <c r="J2">
-        <v>18.58573863631011</v>
+        <v>18.58573863631012</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -438,25 +438,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.35326127496073</v>
+        <v>19.35326127496075</v>
       </c>
       <c r="C3">
-        <v>14.31675422543923</v>
+        <v>14.31675422543927</v>
       </c>
       <c r="D3">
-        <v>4.108753628017862</v>
+        <v>4.108753628017934</v>
       </c>
       <c r="F3">
-        <v>17.70433845356418</v>
+        <v>17.70433845356407</v>
       </c>
       <c r="G3">
-        <v>13.45338875188765</v>
+        <v>13.45338875188754</v>
       </c>
       <c r="H3">
-        <v>11.41497627870804</v>
+        <v>11.41497627870792</v>
       </c>
       <c r="J3">
-        <v>17.39232560530933</v>
+        <v>17.39232560530938</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -464,22 +464,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45916468781054</v>
+        <v>18.45916468781053</v>
       </c>
       <c r="C4">
-        <v>13.65894297237911</v>
+        <v>13.65894297237915</v>
       </c>
       <c r="D4">
-        <v>4.056877056545726</v>
+        <v>4.056877056545775</v>
       </c>
       <c r="F4">
-        <v>17.45647547940406</v>
+        <v>17.45647547940393</v>
       </c>
       <c r="G4">
-        <v>13.44831571216072</v>
+        <v>13.44831571216066</v>
       </c>
       <c r="H4">
-        <v>11.6613427644539</v>
+        <v>11.66134276445384</v>
       </c>
       <c r="J4">
         <v>16.61948120108118</v>
@@ -490,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0826588889263</v>
+        <v>18.08265888892624</v>
       </c>
       <c r="C5">
-        <v>13.38220428254443</v>
+        <v>13.3822042825445</v>
       </c>
       <c r="D5">
-        <v>4.035726814992232</v>
+        <v>4.03572681499208</v>
       </c>
       <c r="F5">
-        <v>17.36352055190318</v>
+        <v>17.36352055190337</v>
       </c>
       <c r="G5">
-        <v>13.45344845232441</v>
+        <v>13.45344845232458</v>
       </c>
       <c r="H5">
-        <v>11.76637932231924</v>
+        <v>11.76637932231945</v>
       </c>
       <c r="J5">
-        <v>16.29442955686377</v>
+        <v>16.29442955686373</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -519,22 +519,22 @@
         <v>18.01940420139391</v>
       </c>
       <c r="C6">
-        <v>13.33572657679836</v>
+        <v>13.33572657679848</v>
       </c>
       <c r="D6">
-        <v>4.032214641345718</v>
+        <v>4.032214641345661</v>
       </c>
       <c r="F6">
-        <v>17.34856670249572</v>
+        <v>17.3485667024957</v>
       </c>
       <c r="G6">
-        <v>13.45472218554445</v>
+        <v>13.45472218554442</v>
       </c>
       <c r="H6">
-        <v>11.78409002213517</v>
+        <v>11.78409002213515</v>
       </c>
       <c r="J6">
-        <v>16.23984365855419</v>
+        <v>16.23984365855422</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,25 +542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45413630756216</v>
+        <v>18.45413630756215</v>
       </c>
       <c r="C7">
-        <v>13.65524597257685</v>
+        <v>13.65524597257694</v>
       </c>
       <c r="D7">
-        <v>4.056591839181997</v>
+        <v>4.056591839181845</v>
       </c>
       <c r="F7">
-        <v>17.45518947698281</v>
+        <v>17.45518947698284</v>
       </c>
       <c r="G7">
-        <v>13.44835638562722</v>
+        <v>13.44835638562724</v>
       </c>
       <c r="H7">
-        <v>11.66274103169336</v>
+        <v>11.66274103169341</v>
       </c>
       <c r="J7">
-        <v>16.6151384121249</v>
+        <v>16.61513841212491</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26601603637146</v>
+        <v>20.2660160363715</v>
       </c>
       <c r="C8">
-        <v>14.98920414969493</v>
+        <v>14.98920414969492</v>
       </c>
       <c r="D8">
-        <v>4.164037644307252</v>
+        <v>4.16403764430713</v>
       </c>
       <c r="F8">
-        <v>17.996754925603</v>
+        <v>17.99675492560301</v>
       </c>
       <c r="G8">
-        <v>13.48467886528503</v>
+        <v>13.48467886528502</v>
       </c>
       <c r="H8">
-        <v>11.16906903202409</v>
+        <v>11.16906903202407</v>
       </c>
       <c r="J8">
-        <v>18.18254531529292</v>
+        <v>18.18254531529295</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -597,22 +597,22 @@
         <v>23.44195750066801</v>
       </c>
       <c r="C9">
-        <v>17.33617109939026</v>
+        <v>17.33617109939013</v>
       </c>
       <c r="D9">
-        <v>4.373475375456912</v>
+        <v>4.373475375456924</v>
       </c>
       <c r="F9">
-        <v>19.32084430821573</v>
+        <v>19.32084430821581</v>
       </c>
       <c r="G9">
-        <v>13.81573728216345</v>
+        <v>13.8157372821635</v>
       </c>
       <c r="H9">
-        <v>10.38199479327663</v>
+        <v>10.38199479327666</v>
       </c>
       <c r="J9">
-        <v>20.94039418155477</v>
+        <v>20.94039418155474</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,25 +620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.55140674017683</v>
+        <v>25.55140674017682</v>
       </c>
       <c r="C10">
-        <v>18.90134007509198</v>
+        <v>18.90134007509184</v>
       </c>
       <c r="D10">
-        <v>4.52602157299753</v>
+        <v>4.526021572997592</v>
       </c>
       <c r="F10">
-        <v>20.45589219568527</v>
+        <v>20.45589219568523</v>
       </c>
       <c r="G10">
         <v>14.24002449143859</v>
       </c>
       <c r="H10">
-        <v>9.949983386973061</v>
+        <v>9.949983386973042</v>
       </c>
       <c r="J10">
-        <v>22.77808329493157</v>
+        <v>22.77808329493154</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -646,25 +646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46388803527526</v>
+        <v>26.46388803527519</v>
       </c>
       <c r="C11">
-        <v>19.5800239510055</v>
+        <v>19.58002395100555</v>
       </c>
       <c r="D11">
-        <v>4.595054385943638</v>
+        <v>4.595054385943604</v>
       </c>
       <c r="F11">
-        <v>21.00753549760936</v>
+        <v>21.0075354976094</v>
       </c>
       <c r="G11">
-        <v>14.47634285124255</v>
+        <v>14.47634285124263</v>
       </c>
       <c r="H11">
-        <v>9.794858026746295</v>
+        <v>9.794858026746454</v>
       </c>
       <c r="J11">
-        <v>23.57427833163344</v>
+        <v>23.57427833163338</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -672,25 +672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.80277535955195</v>
+        <v>26.80277535955193</v>
       </c>
       <c r="C12">
-        <v>19.83234241527942</v>
+        <v>19.8323424152793</v>
       </c>
       <c r="D12">
-        <v>4.621139951325291</v>
+        <v>4.621139951325345</v>
       </c>
       <c r="F12">
-        <v>21.22149888180465</v>
+        <v>21.22149888180467</v>
       </c>
       <c r="G12">
-        <v>14.57232463660204</v>
+        <v>14.57232463660205</v>
       </c>
       <c r="H12">
-        <v>9.742999341717027</v>
+        <v>9.742999341716988</v>
       </c>
       <c r="J12">
-        <v>23.87016159714284</v>
+        <v>23.87016159714281</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.73008353968969</v>
+        <v>26.73008353968967</v>
       </c>
       <c r="C13">
-        <v>19.77820764969511</v>
+        <v>19.778207649695</v>
       </c>
       <c r="D13">
-        <v>4.61552446493917</v>
+        <v>4.615524464939304</v>
       </c>
       <c r="F13">
-        <v>21.17519266619688</v>
+        <v>21.17519266619679</v>
       </c>
       <c r="G13">
-        <v>14.55136066672156</v>
+        <v>14.55136066672149</v>
       </c>
       <c r="H13">
-        <v>9.753846076514417</v>
+        <v>9.753846076514327</v>
       </c>
       <c r="J13">
-        <v>23.80668598293334</v>
+        <v>23.80668598293332</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49190100961508</v>
+        <v>26.49190100961506</v>
       </c>
       <c r="C14">
-        <v>19.60087557722776</v>
+        <v>19.60087557722767</v>
       </c>
       <c r="D14">
-        <v>4.597201588665264</v>
+        <v>4.597201588665284</v>
       </c>
       <c r="F14">
-        <v>21.0250368383289</v>
+        <v>21.02503683832893</v>
       </c>
       <c r="G14">
-        <v>14.48410782409643</v>
+        <v>14.48410782409646</v>
       </c>
       <c r="H14">
-        <v>9.790447958004309</v>
+        <v>9.790447958004325</v>
       </c>
       <c r="J14">
-        <v>23.59873280543912</v>
+        <v>23.5987328054391</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,25 +750,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.34514527136325</v>
+        <v>26.34514527136326</v>
       </c>
       <c r="C15">
-        <v>19.49164785871302</v>
+        <v>19.49164785871312</v>
       </c>
       <c r="D15">
-        <v>4.585970983098777</v>
+        <v>4.585970983098715</v>
       </c>
       <c r="F15">
-        <v>20.93372196421781</v>
+        <v>20.93372196421778</v>
       </c>
       <c r="G15">
         <v>14.4437662873979</v>
       </c>
       <c r="H15">
-        <v>9.813793366759047</v>
+        <v>9.813793366759043</v>
       </c>
       <c r="J15">
-        <v>23.47062699942488</v>
+        <v>23.47062699942492</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,25 +776,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.490836356312</v>
+        <v>25.49083635631198</v>
       </c>
       <c r="C16">
-        <v>18.85632493033943</v>
+        <v>18.85632493033955</v>
       </c>
       <c r="D16">
-        <v>4.521502470980204</v>
+        <v>4.521502470980155</v>
       </c>
       <c r="F16">
-        <v>20.42055051057346</v>
+        <v>20.42055051057344</v>
       </c>
       <c r="G16">
-        <v>14.22547565687985</v>
+        <v>14.22547565687981</v>
       </c>
       <c r="H16">
-        <v>9.961031660505999</v>
+        <v>9.961031660506015</v>
       </c>
       <c r="J16">
-        <v>22.72525804650051</v>
+        <v>22.72525804650054</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,25 +802,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95476409300682</v>
+        <v>24.95476409300684</v>
       </c>
       <c r="C17">
-        <v>18.45811398222457</v>
+        <v>18.45811398222456</v>
       </c>
       <c r="D17">
-        <v>4.48185715696855</v>
+        <v>4.481857156968592</v>
       </c>
       <c r="F17">
-        <v>20.11477066663931</v>
+        <v>20.11477066663936</v>
       </c>
       <c r="G17">
-        <v>14.10285606122466</v>
+        <v>14.10285606122467</v>
       </c>
       <c r="H17">
-        <v>10.06259282983724</v>
+        <v>10.06259282983723</v>
       </c>
       <c r="J17">
-        <v>22.25787864863714</v>
+        <v>22.25787864863716</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -828,25 +828,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64198645433086</v>
+        <v>24.64198645433085</v>
       </c>
       <c r="C18">
-        <v>18.22593042551792</v>
+        <v>18.22593042551806</v>
       </c>
       <c r="D18">
-        <v>4.459020290741141</v>
+        <v>4.459020290741124</v>
       </c>
       <c r="F18">
-        <v>19.94221775513041</v>
+        <v>19.94221775513036</v>
       </c>
       <c r="G18">
-        <v>14.03639180156121</v>
+        <v>14.03639180156114</v>
       </c>
       <c r="H18">
-        <v>10.12484280486669</v>
+        <v>10.1248428048666</v>
       </c>
       <c r="J18">
-        <v>21.98530339965787</v>
+        <v>21.98530339965789</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -854,22 +854,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.53531854196533</v>
+        <v>24.5353185419653</v>
       </c>
       <c r="C19">
-        <v>18.14677412607091</v>
+        <v>18.14677412607087</v>
       </c>
       <c r="D19">
         <v>4.451282447859679</v>
       </c>
       <c r="F19">
-        <v>19.8843655024897</v>
+        <v>19.88436550248977</v>
       </c>
       <c r="G19">
-        <v>14.01457723215397</v>
+        <v>14.01457723215404</v>
       </c>
       <c r="H19">
-        <v>10.14655138609546</v>
+        <v>10.14655138609559</v>
       </c>
       <c r="J19">
         <v>21.89236696147805</v>
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.01228885801211</v>
+        <v>25.01228885801213</v>
       </c>
       <c r="C20">
-        <v>18.50082877862024</v>
+        <v>18.50082877862031</v>
       </c>
       <c r="D20">
-        <v>4.486081015116909</v>
+        <v>4.486081015116868</v>
       </c>
       <c r="F20">
         <v>20.14697756481756</v>
       </c>
       <c r="G20">
-        <v>14.11548653436321</v>
+        <v>14.11548653436314</v>
       </c>
       <c r="H20">
-        <v>10.05137815338116</v>
+        <v>10.05137815338099</v>
       </c>
       <c r="J20">
-        <v>22.30801949618738</v>
+        <v>22.30801949618743</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,25 +906,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.56204040624266</v>
+        <v>26.56204040624278</v>
       </c>
       <c r="C21">
-        <v>19.65308853696933</v>
+        <v>19.65308853696943</v>
       </c>
       <c r="D21">
-        <v>4.602584988907391</v>
+        <v>4.602584988907417</v>
       </c>
       <c r="F21">
-        <v>21.06900372100536</v>
+        <v>21.06900372100531</v>
       </c>
       <c r="G21">
-        <v>14.50368348079831</v>
+        <v>14.50368348079821</v>
       </c>
       <c r="H21">
-        <v>9.779502395101725</v>
+        <v>9.779502395101531</v>
       </c>
       <c r="J21">
-        <v>23.65996531111737</v>
+        <v>23.65996531111747</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -932,22 +932,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53619970158725</v>
+        <v>27.53619970158723</v>
       </c>
       <c r="C22">
         <v>20.37890961197789</v>
       </c>
       <c r="D22">
-        <v>4.678402810862447</v>
+        <v>4.678402810862462</v>
       </c>
       <c r="F22">
-        <v>21.70114709121814</v>
+        <v>21.70114709121823</v>
       </c>
       <c r="G22">
-        <v>14.79533482763643</v>
+        <v>14.79533482763648</v>
       </c>
       <c r="H22">
-        <v>9.642434546344287</v>
+        <v>9.642434546344333</v>
       </c>
       <c r="J22">
         <v>24.51084665963415</v>
@@ -958,25 +958,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.01976873673057</v>
+        <v>27.01976873673063</v>
       </c>
       <c r="C23">
-        <v>19.99398041035402</v>
+        <v>19.993980410354</v>
       </c>
       <c r="D23">
-        <v>4.637967620450612</v>
+        <v>4.637967620450712</v>
       </c>
       <c r="F23">
-        <v>21.36105658003151</v>
+        <v>21.36105658003152</v>
       </c>
       <c r="G23">
-        <v>14.63612598689051</v>
+        <v>14.6361259868905</v>
       </c>
       <c r="H23">
-        <v>9.711543015657954</v>
+        <v>9.711543015657929</v>
       </c>
       <c r="J23">
-        <v>24.05967006314168</v>
+        <v>24.05967006314173</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,25 +984,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.98629619478891</v>
+        <v>24.98629619478887</v>
       </c>
       <c r="C24">
-        <v>18.48152754011877</v>
+        <v>18.48152754011858</v>
       </c>
       <c r="D24">
-        <v>4.484171546351934</v>
+        <v>4.484171546351861</v>
       </c>
       <c r="F24">
-        <v>20.13240672093557</v>
+        <v>20.13240672093564</v>
       </c>
       <c r="G24">
-        <v>14.10976376120077</v>
+        <v>14.10976376120088</v>
       </c>
       <c r="H24">
-        <v>10.05643635155185</v>
+        <v>10.05643635155201</v>
       </c>
       <c r="J24">
-        <v>22.28536288886366</v>
+        <v>22.28536288886356</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,13 +1010,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.62256753189545</v>
+        <v>22.62256753189549</v>
       </c>
       <c r="C25">
-        <v>16.72958044585716</v>
+        <v>16.72958044585697</v>
       </c>
       <c r="D25">
-        <v>4.317016769432403</v>
+        <v>4.317016769432461</v>
       </c>
       <c r="F25">
         <v>18.93421206117453</v>
@@ -1025,10 +1025,10 @@
         <v>13.69587258774615</v>
       </c>
       <c r="H25">
-        <v>10.57217194673336</v>
+        <v>10.57217194673333</v>
       </c>
       <c r="J25">
-        <v>20.22776393647176</v>
+        <v>20.22776393647175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73121620783337</v>
+        <v>20.73121620783335</v>
       </c>
       <c r="C2">
-        <v>15.33228159438009</v>
+        <v>15.33228159438006</v>
       </c>
       <c r="D2">
-        <v>4.193089358750195</v>
+        <v>4.193089358750266</v>
       </c>
       <c r="F2">
-        <v>18.16105711038269</v>
+        <v>18.16105711038276</v>
       </c>
       <c r="G2">
-        <v>13.51117802377872</v>
+        <v>13.5111780237788</v>
       </c>
       <c r="H2">
-        <v>11.04642103386863</v>
+        <v>11.04642103386872</v>
       </c>
       <c r="J2">
-        <v>18.58573863631012</v>
+        <v>18.58573863631011</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -438,25 +438,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.35326127496075</v>
+        <v>19.35326127496073</v>
       </c>
       <c r="C3">
-        <v>14.31675422543927</v>
+        <v>14.31675422543923</v>
       </c>
       <c r="D3">
-        <v>4.108753628017934</v>
+        <v>4.108753628017862</v>
       </c>
       <c r="F3">
-        <v>17.70433845356407</v>
+        <v>17.70433845356418</v>
       </c>
       <c r="G3">
-        <v>13.45338875188754</v>
+        <v>13.45338875188765</v>
       </c>
       <c r="H3">
-        <v>11.41497627870792</v>
+        <v>11.41497627870804</v>
       </c>
       <c r="J3">
-        <v>17.39232560530938</v>
+        <v>17.39232560530933</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -464,22 +464,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45916468781053</v>
+        <v>18.45916468781054</v>
       </c>
       <c r="C4">
-        <v>13.65894297237915</v>
+        <v>13.65894297237911</v>
       </c>
       <c r="D4">
-        <v>4.056877056545775</v>
+        <v>4.056877056545726</v>
       </c>
       <c r="F4">
-        <v>17.45647547940393</v>
+        <v>17.45647547940406</v>
       </c>
       <c r="G4">
-        <v>13.44831571216066</v>
+        <v>13.44831571216072</v>
       </c>
       <c r="H4">
-        <v>11.66134276445384</v>
+        <v>11.6613427644539</v>
       </c>
       <c r="J4">
         <v>16.61948120108118</v>
@@ -490,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08265888892624</v>
+        <v>18.0826588889263</v>
       </c>
       <c r="C5">
-        <v>13.3822042825445</v>
+        <v>13.38220428254443</v>
       </c>
       <c r="D5">
-        <v>4.03572681499208</v>
+        <v>4.035726814992232</v>
       </c>
       <c r="F5">
-        <v>17.36352055190337</v>
+        <v>17.36352055190318</v>
       </c>
       <c r="G5">
-        <v>13.45344845232458</v>
+        <v>13.45344845232441</v>
       </c>
       <c r="H5">
-        <v>11.76637932231945</v>
+        <v>11.76637932231924</v>
       </c>
       <c r="J5">
-        <v>16.29442955686373</v>
+        <v>16.29442955686377</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -519,22 +519,22 @@
         <v>18.01940420139391</v>
       </c>
       <c r="C6">
-        <v>13.33572657679848</v>
+        <v>13.33572657679836</v>
       </c>
       <c r="D6">
-        <v>4.032214641345661</v>
+        <v>4.032214641345718</v>
       </c>
       <c r="F6">
-        <v>17.3485667024957</v>
+        <v>17.34856670249572</v>
       </c>
       <c r="G6">
-        <v>13.45472218554442</v>
+        <v>13.45472218554445</v>
       </c>
       <c r="H6">
-        <v>11.78409002213515</v>
+        <v>11.78409002213517</v>
       </c>
       <c r="J6">
-        <v>16.23984365855422</v>
+        <v>16.23984365855419</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,25 +542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45413630756215</v>
+        <v>18.45413630756216</v>
       </c>
       <c r="C7">
-        <v>13.65524597257694</v>
+        <v>13.65524597257685</v>
       </c>
       <c r="D7">
-        <v>4.056591839181845</v>
+        <v>4.056591839181997</v>
       </c>
       <c r="F7">
-        <v>17.45518947698284</v>
+        <v>17.45518947698281</v>
       </c>
       <c r="G7">
-        <v>13.44835638562724</v>
+        <v>13.44835638562722</v>
       </c>
       <c r="H7">
-        <v>11.66274103169341</v>
+        <v>11.66274103169336</v>
       </c>
       <c r="J7">
-        <v>16.61513841212491</v>
+        <v>16.6151384121249</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.2660160363715</v>
+        <v>20.26601603637146</v>
       </c>
       <c r="C8">
-        <v>14.98920414969492</v>
+        <v>14.98920414969493</v>
       </c>
       <c r="D8">
-        <v>4.16403764430713</v>
+        <v>4.164037644307252</v>
       </c>
       <c r="F8">
-        <v>17.99675492560301</v>
+        <v>17.996754925603</v>
       </c>
       <c r="G8">
-        <v>13.48467886528502</v>
+        <v>13.48467886528503</v>
       </c>
       <c r="H8">
-        <v>11.16906903202407</v>
+        <v>11.16906903202409</v>
       </c>
       <c r="J8">
-        <v>18.18254531529295</v>
+        <v>18.18254531529292</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -597,22 +597,22 @@
         <v>23.44195750066801</v>
       </c>
       <c r="C9">
-        <v>17.33617109939013</v>
+        <v>17.33617109939026</v>
       </c>
       <c r="D9">
-        <v>4.373475375456924</v>
+        <v>4.373475375456912</v>
       </c>
       <c r="F9">
-        <v>19.32084430821581</v>
+        <v>19.32084430821573</v>
       </c>
       <c r="G9">
-        <v>13.8157372821635</v>
+        <v>13.81573728216345</v>
       </c>
       <c r="H9">
-        <v>10.38199479327666</v>
+        <v>10.38199479327663</v>
       </c>
       <c r="J9">
-        <v>20.94039418155474</v>
+        <v>20.94039418155477</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,25 +620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.55140674017682</v>
+        <v>25.55140674017683</v>
       </c>
       <c r="C10">
-        <v>18.90134007509184</v>
+        <v>18.90134007509198</v>
       </c>
       <c r="D10">
-        <v>4.526021572997592</v>
+        <v>4.52602157299753</v>
       </c>
       <c r="F10">
-        <v>20.45589219568523</v>
+        <v>20.45589219568527</v>
       </c>
       <c r="G10">
         <v>14.24002449143859</v>
       </c>
       <c r="H10">
-        <v>9.949983386973042</v>
+        <v>9.949983386973061</v>
       </c>
       <c r="J10">
-        <v>22.77808329493154</v>
+        <v>22.77808329493157</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -646,25 +646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46388803527519</v>
+        <v>26.46388803527526</v>
       </c>
       <c r="C11">
-        <v>19.58002395100555</v>
+        <v>19.5800239510055</v>
       </c>
       <c r="D11">
-        <v>4.595054385943604</v>
+        <v>4.595054385943638</v>
       </c>
       <c r="F11">
-        <v>21.0075354976094</v>
+        <v>21.00753549760936</v>
       </c>
       <c r="G11">
-        <v>14.47634285124263</v>
+        <v>14.47634285124255</v>
       </c>
       <c r="H11">
-        <v>9.794858026746454</v>
+        <v>9.794858026746295</v>
       </c>
       <c r="J11">
-        <v>23.57427833163338</v>
+        <v>23.57427833163344</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -672,25 +672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.80277535955193</v>
+        <v>26.80277535955195</v>
       </c>
       <c r="C12">
-        <v>19.8323424152793</v>
+        <v>19.83234241527942</v>
       </c>
       <c r="D12">
-        <v>4.621139951325345</v>
+        <v>4.621139951325291</v>
       </c>
       <c r="F12">
-        <v>21.22149888180467</v>
+        <v>21.22149888180465</v>
       </c>
       <c r="G12">
-        <v>14.57232463660205</v>
+        <v>14.57232463660204</v>
       </c>
       <c r="H12">
-        <v>9.742999341716988</v>
+        <v>9.742999341717027</v>
       </c>
       <c r="J12">
-        <v>23.87016159714281</v>
+        <v>23.87016159714284</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.73008353968967</v>
+        <v>26.73008353968969</v>
       </c>
       <c r="C13">
-        <v>19.778207649695</v>
+        <v>19.77820764969511</v>
       </c>
       <c r="D13">
-        <v>4.615524464939304</v>
+        <v>4.61552446493917</v>
       </c>
       <c r="F13">
-        <v>21.17519266619679</v>
+        <v>21.17519266619688</v>
       </c>
       <c r="G13">
-        <v>14.55136066672149</v>
+        <v>14.55136066672156</v>
       </c>
       <c r="H13">
-        <v>9.753846076514327</v>
+        <v>9.753846076514417</v>
       </c>
       <c r="J13">
-        <v>23.80668598293332</v>
+        <v>23.80668598293334</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49190100961506</v>
+        <v>26.49190100961508</v>
       </c>
       <c r="C14">
-        <v>19.60087557722767</v>
+        <v>19.60087557722776</v>
       </c>
       <c r="D14">
-        <v>4.597201588665284</v>
+        <v>4.597201588665264</v>
       </c>
       <c r="F14">
-        <v>21.02503683832893</v>
+        <v>21.0250368383289</v>
       </c>
       <c r="G14">
-        <v>14.48410782409646</v>
+        <v>14.48410782409643</v>
       </c>
       <c r="H14">
-        <v>9.790447958004325</v>
+        <v>9.790447958004309</v>
       </c>
       <c r="J14">
-        <v>23.5987328054391</v>
+        <v>23.59873280543912</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,25 +750,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.34514527136326</v>
+        <v>26.34514527136325</v>
       </c>
       <c r="C15">
-        <v>19.49164785871312</v>
+        <v>19.49164785871302</v>
       </c>
       <c r="D15">
-        <v>4.585970983098715</v>
+        <v>4.585970983098777</v>
       </c>
       <c r="F15">
-        <v>20.93372196421778</v>
+        <v>20.93372196421781</v>
       </c>
       <c r="G15">
         <v>14.4437662873979</v>
       </c>
       <c r="H15">
-        <v>9.813793366759043</v>
+        <v>9.813793366759047</v>
       </c>
       <c r="J15">
-        <v>23.47062699942492</v>
+        <v>23.47062699942488</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,25 +776,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.49083635631198</v>
+        <v>25.490836356312</v>
       </c>
       <c r="C16">
-        <v>18.85632493033955</v>
+        <v>18.85632493033943</v>
       </c>
       <c r="D16">
-        <v>4.521502470980155</v>
+        <v>4.521502470980204</v>
       </c>
       <c r="F16">
-        <v>20.42055051057344</v>
+        <v>20.42055051057346</v>
       </c>
       <c r="G16">
-        <v>14.22547565687981</v>
+        <v>14.22547565687985</v>
       </c>
       <c r="H16">
-        <v>9.961031660506015</v>
+        <v>9.961031660505999</v>
       </c>
       <c r="J16">
-        <v>22.72525804650054</v>
+        <v>22.72525804650051</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,25 +802,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95476409300684</v>
+        <v>24.95476409300682</v>
       </c>
       <c r="C17">
-        <v>18.45811398222456</v>
+        <v>18.45811398222457</v>
       </c>
       <c r="D17">
-        <v>4.481857156968592</v>
+        <v>4.48185715696855</v>
       </c>
       <c r="F17">
-        <v>20.11477066663936</v>
+        <v>20.11477066663931</v>
       </c>
       <c r="G17">
-        <v>14.10285606122467</v>
+        <v>14.10285606122466</v>
       </c>
       <c r="H17">
-        <v>10.06259282983723</v>
+        <v>10.06259282983724</v>
       </c>
       <c r="J17">
-        <v>22.25787864863716</v>
+        <v>22.25787864863714</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -828,25 +828,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64198645433085</v>
+        <v>24.64198645433086</v>
       </c>
       <c r="C18">
-        <v>18.22593042551806</v>
+        <v>18.22593042551792</v>
       </c>
       <c r="D18">
-        <v>4.459020290741124</v>
+        <v>4.459020290741141</v>
       </c>
       <c r="F18">
-        <v>19.94221775513036</v>
+        <v>19.94221775513041</v>
       </c>
       <c r="G18">
-        <v>14.03639180156114</v>
+        <v>14.03639180156121</v>
       </c>
       <c r="H18">
-        <v>10.1248428048666</v>
+        <v>10.12484280486669</v>
       </c>
       <c r="J18">
-        <v>21.98530339965789</v>
+        <v>21.98530339965787</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -854,22 +854,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.5353185419653</v>
+        <v>24.53531854196533</v>
       </c>
       <c r="C19">
-        <v>18.14677412607087</v>
+        <v>18.14677412607091</v>
       </c>
       <c r="D19">
         <v>4.451282447859679</v>
       </c>
       <c r="F19">
-        <v>19.88436550248977</v>
+        <v>19.8843655024897</v>
       </c>
       <c r="G19">
-        <v>14.01457723215404</v>
+        <v>14.01457723215397</v>
       </c>
       <c r="H19">
-        <v>10.14655138609559</v>
+        <v>10.14655138609546</v>
       </c>
       <c r="J19">
         <v>21.89236696147805</v>
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.01228885801213</v>
+        <v>25.01228885801211</v>
       </c>
       <c r="C20">
-        <v>18.50082877862031</v>
+        <v>18.50082877862024</v>
       </c>
       <c r="D20">
-        <v>4.486081015116868</v>
+        <v>4.486081015116909</v>
       </c>
       <c r="F20">
         <v>20.14697756481756</v>
       </c>
       <c r="G20">
-        <v>14.11548653436314</v>
+        <v>14.11548653436321</v>
       </c>
       <c r="H20">
-        <v>10.05137815338099</v>
+        <v>10.05137815338116</v>
       </c>
       <c r="J20">
-        <v>22.30801949618743</v>
+        <v>22.30801949618738</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,25 +906,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.56204040624278</v>
+        <v>26.56204040624266</v>
       </c>
       <c r="C21">
-        <v>19.65308853696943</v>
+        <v>19.65308853696933</v>
       </c>
       <c r="D21">
-        <v>4.602584988907417</v>
+        <v>4.602584988907391</v>
       </c>
       <c r="F21">
-        <v>21.06900372100531</v>
+        <v>21.06900372100536</v>
       </c>
       <c r="G21">
-        <v>14.50368348079821</v>
+        <v>14.50368348079831</v>
       </c>
       <c r="H21">
-        <v>9.779502395101531</v>
+        <v>9.779502395101725</v>
       </c>
       <c r="J21">
-        <v>23.65996531111747</v>
+        <v>23.65996531111737</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -932,22 +932,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53619970158723</v>
+        <v>27.53619970158725</v>
       </c>
       <c r="C22">
         <v>20.37890961197789</v>
       </c>
       <c r="D22">
-        <v>4.678402810862462</v>
+        <v>4.678402810862447</v>
       </c>
       <c r="F22">
-        <v>21.70114709121823</v>
+        <v>21.70114709121814</v>
       </c>
       <c r="G22">
-        <v>14.79533482763648</v>
+        <v>14.79533482763643</v>
       </c>
       <c r="H22">
-        <v>9.642434546344333</v>
+        <v>9.642434546344287</v>
       </c>
       <c r="J22">
         <v>24.51084665963415</v>
@@ -958,25 +958,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.01976873673063</v>
+        <v>27.01976873673057</v>
       </c>
       <c r="C23">
-        <v>19.993980410354</v>
+        <v>19.99398041035402</v>
       </c>
       <c r="D23">
-        <v>4.637967620450712</v>
+        <v>4.637967620450612</v>
       </c>
       <c r="F23">
-        <v>21.36105658003152</v>
+        <v>21.36105658003151</v>
       </c>
       <c r="G23">
-        <v>14.6361259868905</v>
+        <v>14.63612598689051</v>
       </c>
       <c r="H23">
-        <v>9.711543015657929</v>
+        <v>9.711543015657954</v>
       </c>
       <c r="J23">
-        <v>24.05967006314173</v>
+        <v>24.05967006314168</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,25 +984,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.98629619478887</v>
+        <v>24.98629619478891</v>
       </c>
       <c r="C24">
-        <v>18.48152754011858</v>
+        <v>18.48152754011877</v>
       </c>
       <c r="D24">
-        <v>4.484171546351861</v>
+        <v>4.484171546351934</v>
       </c>
       <c r="F24">
-        <v>20.13240672093564</v>
+        <v>20.13240672093557</v>
       </c>
       <c r="G24">
-        <v>14.10976376120088</v>
+        <v>14.10976376120077</v>
       </c>
       <c r="H24">
-        <v>10.05643635155201</v>
+        <v>10.05643635155185</v>
       </c>
       <c r="J24">
-        <v>22.28536288886356</v>
+        <v>22.28536288886366</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,13 +1010,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.62256753189549</v>
+        <v>22.62256753189545</v>
       </c>
       <c r="C25">
-        <v>16.72958044585697</v>
+        <v>16.72958044585716</v>
       </c>
       <c r="D25">
-        <v>4.317016769432461</v>
+        <v>4.317016769432403</v>
       </c>
       <c r="F25">
         <v>18.93421206117453</v>
@@ -1025,10 +1025,10 @@
         <v>13.69587258774615</v>
       </c>
       <c r="H25">
-        <v>10.57217194673333</v>
+        <v>10.57217194673336</v>
       </c>
       <c r="J25">
-        <v>20.22776393647175</v>
+        <v>20.22776393647176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,629 +406,704 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73121620783335</v>
+        <v>20.73133368823175</v>
       </c>
       <c r="C2">
-        <v>15.33228159438006</v>
+        <v>15.33061857597611</v>
       </c>
       <c r="D2">
-        <v>4.193089358750266</v>
+        <v>4.194599974272887</v>
       </c>
       <c r="F2">
-        <v>18.16105711038276</v>
+        <v>18.15097769949836</v>
       </c>
       <c r="G2">
-        <v>13.5111780237788</v>
+        <v>11.45475703219431</v>
       </c>
       <c r="H2">
-        <v>11.04642103386872</v>
-      </c>
-      <c r="J2">
-        <v>18.58573863631011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.53274210632372</v>
+      </c>
+      <c r="I2">
+        <v>11.04121373930628</v>
+      </c>
+      <c r="K2">
+        <v>18.58528968932525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.35326127496073</v>
+        <v>19.35346303538318</v>
       </c>
       <c r="C3">
-        <v>14.31675422543923</v>
+        <v>14.31530814966833</v>
       </c>
       <c r="D3">
-        <v>4.108753628017862</v>
+        <v>4.109991091578715</v>
       </c>
       <c r="F3">
-        <v>17.70433845356418</v>
+        <v>17.69478158783415</v>
       </c>
       <c r="G3">
-        <v>13.45338875188765</v>
+        <v>11.1055103211481</v>
       </c>
       <c r="H3">
-        <v>11.41497627870804</v>
-      </c>
-      <c r="J3">
-        <v>17.39232560530933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>13.47506637387217</v>
+      </c>
+      <c r="I3">
+        <v>11.41007637509279</v>
+      </c>
+      <c r="K3">
+        <v>17.39201627087032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45916468781054</v>
+        <v>18.45941851819255</v>
       </c>
       <c r="C4">
-        <v>13.65894297237911</v>
+        <v>13.65763626602749</v>
       </c>
       <c r="D4">
-        <v>4.056877056545726</v>
+        <v>4.057936759436555</v>
       </c>
       <c r="F4">
-        <v>17.45647547940406</v>
+        <v>17.44724063929974</v>
       </c>
       <c r="G4">
-        <v>13.44831571216072</v>
+        <v>10.91920231940758</v>
       </c>
       <c r="H4">
-        <v>11.6613427644539</v>
-      </c>
-      <c r="J4">
-        <v>16.61948120108118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.47013728786118</v>
+      </c>
+      <c r="I4">
+        <v>11.65661214203751</v>
+      </c>
+      <c r="K4">
+        <v>16.61926136997767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0826588889263</v>
+        <v>18.0829341349659</v>
       </c>
       <c r="C5">
-        <v>13.38220428254443</v>
+        <v>13.38095609013714</v>
       </c>
       <c r="D5">
-        <v>4.035726814992232</v>
+        <v>4.036711672465512</v>
       </c>
       <c r="F5">
-        <v>17.36352055190318</v>
+        <v>17.35441704700353</v>
       </c>
       <c r="G5">
-        <v>13.45344845232441</v>
+        <v>10.85024737958852</v>
       </c>
       <c r="H5">
-        <v>11.76637932231924</v>
-      </c>
-      <c r="J5">
-        <v>16.29442955686377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.47534614660121</v>
+      </c>
+      <c r="I5">
+        <v>11.76171335625413</v>
+      </c>
+      <c r="K5">
+        <v>16.29424730303159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01940420139391</v>
+        <v>18.01968301891294</v>
       </c>
       <c r="C6">
-        <v>13.33572657679836</v>
+        <v>13.33448820972917</v>
       </c>
       <c r="D6">
-        <v>4.032214641345718</v>
+        <v>4.03318692911425</v>
       </c>
       <c r="F6">
-        <v>17.34856670249572</v>
+        <v>17.33948500602068</v>
       </c>
       <c r="G6">
-        <v>13.45472218554445</v>
+        <v>10.83921392798674</v>
       </c>
       <c r="H6">
-        <v>11.78409002213517</v>
-      </c>
-      <c r="J6">
-        <v>16.23984365855419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.4766335370937</v>
+      </c>
+      <c r="I6">
+        <v>11.77943454717247</v>
+      </c>
+      <c r="K6">
+        <v>16.23966771583882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45413630756216</v>
+        <v>18.45439042580786</v>
       </c>
       <c r="C7">
-        <v>13.65524597257685</v>
+        <v>13.6539400481658</v>
       </c>
       <c r="D7">
-        <v>4.056591839181997</v>
+        <v>4.05765054226091</v>
       </c>
       <c r="F7">
-        <v>17.45518947698281</v>
+        <v>17.44595640795184</v>
       </c>
       <c r="G7">
-        <v>13.44835638562722</v>
+        <v>10.91824434586386</v>
       </c>
       <c r="H7">
-        <v>11.66274103169336</v>
-      </c>
-      <c r="J7">
-        <v>16.6151384121249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.47017891885212</v>
+      </c>
+      <c r="I7">
+        <v>11.65801129803545</v>
+      </c>
+      <c r="K7">
+        <v>16.61491908311878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26601603637146</v>
+        <v>20.26616257735301</v>
       </c>
       <c r="C8">
-        <v>14.98920414969493</v>
+        <v>14.98761475078337</v>
       </c>
       <c r="D8">
-        <v>4.164037644307252</v>
+        <v>4.165456230421398</v>
       </c>
       <c r="F8">
-        <v>17.996754925603</v>
+        <v>17.98685534105372</v>
       </c>
       <c r="G8">
-        <v>13.48467886528503</v>
+        <v>11.32845273002675</v>
       </c>
       <c r="H8">
-        <v>11.16906903202409</v>
-      </c>
-      <c r="J8">
-        <v>18.18254531529292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.5062659801175</v>
+      </c>
+      <c r="I8">
+        <v>11.16397210610684</v>
+      </c>
+      <c r="K8">
+        <v>18.18214381020136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44195750066801</v>
+        <v>23.44189072549535</v>
       </c>
       <c r="C9">
-        <v>17.33617109939026</v>
+        <v>17.33406780156158</v>
       </c>
       <c r="D9">
-        <v>4.373475375456912</v>
+        <v>4.375515197186315</v>
       </c>
       <c r="F9">
-        <v>19.32084430821573</v>
+        <v>19.30965301867387</v>
       </c>
       <c r="G9">
-        <v>13.81573728216345</v>
+        <v>12.35794076573502</v>
       </c>
       <c r="H9">
-        <v>10.38199479327663</v>
-      </c>
-      <c r="J9">
-        <v>20.94039418155477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.83750117213215</v>
+      </c>
+      <c r="I9">
+        <v>10.37599871562561</v>
+      </c>
+      <c r="K9">
+        <v>20.93965916092786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.55140674017683</v>
+        <v>25.55117513709772</v>
       </c>
       <c r="C10">
-        <v>18.90134007509198</v>
+        <v>18.89887576914543</v>
       </c>
       <c r="D10">
-        <v>4.52602157299753</v>
+        <v>4.528460445972761</v>
       </c>
       <c r="F10">
-        <v>20.45589219568527</v>
+        <v>20.44376468430354</v>
       </c>
       <c r="G10">
-        <v>14.24002449143859</v>
+        <v>13.25106623152262</v>
       </c>
       <c r="H10">
-        <v>9.949983386973061</v>
-      </c>
-      <c r="J10">
-        <v>22.77808329493157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.26236485342059</v>
+      </c>
+      <c r="I10">
+        <v>9.94318840854671</v>
+      </c>
+      <c r="K10">
+        <v>22.77710955357549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46388803527526</v>
+        <v>26.46357818816527</v>
       </c>
       <c r="C11">
-        <v>19.5800239510055</v>
+        <v>19.57739707156875</v>
       </c>
       <c r="D11">
-        <v>4.595054385943638</v>
+        <v>4.597661247522492</v>
       </c>
       <c r="F11">
-        <v>21.00753549760936</v>
+        <v>20.99498410541221</v>
       </c>
       <c r="G11">
-        <v>14.47634285124255</v>
+        <v>13.68645596254069</v>
       </c>
       <c r="H11">
-        <v>9.794858026746295</v>
-      </c>
-      <c r="J11">
-        <v>23.57427833163344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.49905124024011</v>
+      </c>
+      <c r="I11">
+        <v>9.787666117223063</v>
+      </c>
+      <c r="K11">
+        <v>23.57319562607126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.80277535955195</v>
+        <v>26.80243527972913</v>
       </c>
       <c r="C12">
-        <v>19.83234241527942</v>
+        <v>19.82965404316262</v>
       </c>
       <c r="D12">
-        <v>4.621139951325291</v>
+        <v>4.623808395965134</v>
       </c>
       <c r="F12">
-        <v>21.22149888180465</v>
+        <v>21.20878710034083</v>
       </c>
       <c r="G12">
-        <v>14.57232463660204</v>
+        <v>13.86380377734107</v>
       </c>
       <c r="H12">
-        <v>9.742999341717027</v>
-      </c>
-      <c r="J12">
-        <v>23.87016159714284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.59518806151001</v>
+      </c>
+      <c r="I12">
+        <v>9.73565235113772</v>
+      </c>
+      <c r="K12">
+        <v>23.86903742690535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.73008353968969</v>
+        <v>26.72975000012331</v>
       </c>
       <c r="C13">
-        <v>19.77820764969511</v>
+        <v>19.77553252077558</v>
       </c>
       <c r="D13">
-        <v>4.61552446493917</v>
+        <v>4.61817973815634</v>
       </c>
       <c r="F13">
-        <v>21.17519266619688</v>
+        <v>21.16251542534126</v>
       </c>
       <c r="G13">
-        <v>14.55136066672156</v>
+        <v>13.82042705056283</v>
       </c>
       <c r="H13">
-        <v>9.753846076514417</v>
-      </c>
-      <c r="J13">
-        <v>23.80668598293334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.57418999957979</v>
+      </c>
+      <c r="I13">
+        <v>9.746532693355862</v>
+      </c>
+      <c r="K13">
+        <v>23.80557075432991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49190100961508</v>
+        <v>26.49158868814548</v>
       </c>
       <c r="C14">
-        <v>19.60087557722776</v>
+        <v>19.5982436383363</v>
       </c>
       <c r="D14">
-        <v>4.597201588665264</v>
+        <v>4.599813557877157</v>
       </c>
       <c r="F14">
-        <v>21.0250368383289</v>
+        <v>21.01247224952965</v>
       </c>
       <c r="G14">
-        <v>14.48410782409643</v>
+        <v>13.70027710907377</v>
       </c>
       <c r="H14">
-        <v>9.790447958004309</v>
-      </c>
-      <c r="J14">
-        <v>23.59873280543912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.50682865195118</v>
+      </c>
+      <c r="I14">
+        <v>9.783243384064075</v>
+      </c>
+      <c r="K14">
+        <v>23.5976466934954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.34514527136325</v>
+        <v>26.34484586382852</v>
       </c>
       <c r="C15">
-        <v>19.49164785871302</v>
+        <v>19.48904237898486</v>
       </c>
       <c r="D15">
-        <v>4.585970983098777</v>
+        <v>4.588556160519744</v>
       </c>
       <c r="F15">
-        <v>20.93372196421781</v>
+        <v>20.92122638810388</v>
       </c>
       <c r="G15">
-        <v>14.4437662873979</v>
+        <v>13.62816862572509</v>
       </c>
       <c r="H15">
-        <v>9.813793366759047</v>
-      </c>
-      <c r="J15">
-        <v>23.47062699942488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.46642270415592</v>
+      </c>
+      <c r="I15">
+        <v>9.80665482712673</v>
+      </c>
+      <c r="K15">
+        <v>23.46955869134627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.490836356312</v>
+        <v>25.49060978979088</v>
       </c>
       <c r="C16">
-        <v>18.85632493033943</v>
+        <v>18.85387126812817</v>
       </c>
       <c r="D16">
-        <v>4.521502470980204</v>
+        <v>4.523930085784673</v>
       </c>
       <c r="F16">
-        <v>20.42055051057346</v>
+        <v>20.40845072909492</v>
       </c>
       <c r="G16">
-        <v>14.22547565687985</v>
+        <v>13.22319272462609</v>
       </c>
       <c r="H16">
-        <v>9.961031660505999</v>
-      </c>
-      <c r="J16">
-        <v>22.72525804650051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>14.24779413989001</v>
+      </c>
+      <c r="I16">
+        <v>9.954261944961226</v>
+      </c>
+      <c r="K16">
+        <v>22.72429140622639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95476409300682</v>
+        <v>24.95458128432679</v>
       </c>
       <c r="C17">
-        <v>18.45811398222457</v>
+        <v>18.45575376221575</v>
       </c>
       <c r="D17">
-        <v>4.48185715696855</v>
+        <v>4.484184583059181</v>
       </c>
       <c r="F17">
-        <v>20.11477066663931</v>
+        <v>20.10291411629669</v>
       </c>
       <c r="G17">
-        <v>14.10285606122466</v>
+        <v>12.98216138578046</v>
       </c>
       <c r="H17">
-        <v>10.06259282983724</v>
-      </c>
-      <c r="J17">
-        <v>22.25787864863714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>14.12499471644921</v>
+      </c>
+      <c r="I17">
+        <v>10.05604072965606</v>
+      </c>
+      <c r="K17">
+        <v>22.25697418017684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64198645433086</v>
+        <v>24.64182851547637</v>
       </c>
       <c r="C18">
-        <v>18.22593042551792</v>
+        <v>18.22362411684911</v>
       </c>
       <c r="D18">
-        <v>4.459020290741141</v>
+        <v>4.46128882094319</v>
       </c>
       <c r="F18">
-        <v>19.94221775513041</v>
+        <v>19.93050130902578</v>
       </c>
       <c r="G18">
-        <v>14.03639180156121</v>
+        <v>12.8462692949953</v>
       </c>
       <c r="H18">
-        <v>10.12484280486669</v>
-      </c>
-      <c r="J18">
-        <v>21.98530339965787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>14.05843696667462</v>
+      </c>
+      <c r="I18">
+        <v>10.11841269789932</v>
+      </c>
+      <c r="K18">
+        <v>21.98443466537193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.53531854196533</v>
+        <v>24.53516897624257</v>
       </c>
       <c r="C19">
-        <v>18.14677412607091</v>
+        <v>18.14448610426863</v>
       </c>
       <c r="D19">
-        <v>4.451282447859679</v>
+        <v>4.453530821418887</v>
       </c>
       <c r="F19">
-        <v>19.8843655024897</v>
+        <v>19.87269653200771</v>
       </c>
       <c r="G19">
-        <v>14.01457723215397</v>
+        <v>12.80073162772984</v>
       </c>
       <c r="H19">
-        <v>10.14655138609546</v>
-      </c>
-      <c r="J19">
-        <v>21.89236696147805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>14.03659243348228</v>
+      </c>
+      <c r="I19">
+        <v>10.14016204258018</v>
+      </c>
+      <c r="K19">
+        <v>21.89151032621627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.01228885801211</v>
+        <v>25.01210142306754</v>
       </c>
       <c r="C20">
-        <v>18.50082877862024</v>
+        <v>18.49845859554081</v>
       </c>
       <c r="D20">
-        <v>4.486081015116909</v>
+        <v>4.488419238524168</v>
       </c>
       <c r="F20">
-        <v>20.14697756481756</v>
+        <v>20.13509510191036</v>
       </c>
       <c r="G20">
-        <v>14.11548653436321</v>
+        <v>13.00753618874728</v>
       </c>
       <c r="H20">
-        <v>10.05137815338116</v>
-      </c>
-      <c r="J20">
-        <v>22.30801949618738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>14.13764329964486</v>
+      </c>
+      <c r="I20">
+        <v>10.04480321678759</v>
+      </c>
+      <c r="K20">
+        <v>22.3071084131143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.56204040624266</v>
+        <v>26.56172187000798</v>
       </c>
       <c r="C21">
-        <v>19.65308853696933</v>
+        <v>19.65044391159546</v>
       </c>
       <c r="D21">
-        <v>4.602584988907391</v>
+        <v>4.605209733306677</v>
       </c>
       <c r="F21">
-        <v>21.06900372100536</v>
+        <v>21.05640604187884</v>
       </c>
       <c r="G21">
-        <v>14.50368348079831</v>
+        <v>13.73500038210069</v>
       </c>
       <c r="H21">
-        <v>9.779502395101725</v>
-      </c>
-      <c r="J21">
-        <v>23.65996531111737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>14.52643575115749</v>
+      </c>
+      <c r="I21">
+        <v>9.772265988755338</v>
+      </c>
+      <c r="K21">
+        <v>23.65887065363074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53619970158725</v>
+        <v>27.53579189456935</v>
       </c>
       <c r="C22">
-        <v>20.37890961197789</v>
+        <v>20.37608594665987</v>
       </c>
       <c r="D22">
-        <v>4.678402810862447</v>
+        <v>4.68120294160842</v>
       </c>
       <c r="F22">
-        <v>21.70114709121814</v>
+        <v>21.68808257245604</v>
       </c>
       <c r="G22">
-        <v>14.79533482763643</v>
+        <v>14.30982059386936</v>
       </c>
       <c r="H22">
-        <v>9.642434546344287</v>
-      </c>
-      <c r="J22">
-        <v>24.51084665963415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>14.81856772273742</v>
+      </c>
+      <c r="I22">
+        <v>9.634738288866371</v>
+      </c>
+      <c r="K22">
+        <v>24.50963076982243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.01976873673057</v>
+        <v>27.01940895114238</v>
       </c>
       <c r="C23">
-        <v>19.99398041035402</v>
+        <v>19.99125233061829</v>
       </c>
       <c r="D23">
-        <v>4.637967620450612</v>
+        <v>4.640675256935038</v>
       </c>
       <c r="F23">
-        <v>21.36105658003151</v>
+        <v>21.34824124325043</v>
       </c>
       <c r="G23">
-        <v>14.63612598689051</v>
+        <v>13.99418310831178</v>
       </c>
       <c r="H23">
-        <v>9.711543015657954</v>
-      </c>
-      <c r="J23">
-        <v>24.05967006314168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>14.65909389530152</v>
+      </c>
+      <c r="I23">
+        <v>9.704094605202414</v>
+      </c>
+      <c r="K23">
+        <v>24.05851904412269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.98629619478891</v>
+        <v>24.98611085226295</v>
       </c>
       <c r="C24">
-        <v>18.48152754011877</v>
+        <v>18.47916186073875</v>
       </c>
       <c r="D24">
-        <v>4.484171546351934</v>
+        <v>4.486504892322747</v>
       </c>
       <c r="F24">
-        <v>20.13240672093557</v>
+        <v>20.12053597225437</v>
       </c>
       <c r="G24">
-        <v>14.10976376120077</v>
+        <v>12.99605588776372</v>
       </c>
       <c r="H24">
-        <v>10.05643635155185</v>
-      </c>
-      <c r="J24">
-        <v>22.28536288886366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>14.1319123081414</v>
+      </c>
+      <c r="I24">
+        <v>10.04987174900684</v>
+      </c>
+      <c r="K24">
+        <v>22.28445479627464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.62256753189545</v>
+        <v>22.62255940007442</v>
       </c>
       <c r="C25">
-        <v>16.72958044585716</v>
+        <v>16.72761262059784</v>
       </c>
       <c r="D25">
-        <v>4.317016769432403</v>
+        <v>4.318898212784326</v>
       </c>
       <c r="F25">
-        <v>18.93421206117453</v>
+        <v>18.92336796463741</v>
       </c>
       <c r="G25">
-        <v>13.69587258774615</v>
+        <v>12.05525585542886</v>
       </c>
       <c r="H25">
-        <v>10.57217194673336</v>
-      </c>
-      <c r="J25">
-        <v>20.22776393647176</v>
+        <v>13.71751380974307</v>
+      </c>
+      <c r="I25">
+        <v>10.56644162709816</v>
+      </c>
+      <c r="K25">
+        <v>20.22711745336629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,701 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.73133368823175</v>
+        <v>17.68931121170171</v>
       </c>
       <c r="C2">
-        <v>15.33061857597611</v>
+        <v>11.17245973412382</v>
       </c>
       <c r="D2">
-        <v>4.194599974272887</v>
+        <v>4.435247323428807</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>18.15097769949836</v>
+        <v>65.24597627013472</v>
       </c>
       <c r="G2">
-        <v>11.45475703219431</v>
+        <v>2.115643682455133</v>
       </c>
       <c r="H2">
-        <v>13.53274210632372</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.04121373930628</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.058545505358313</v>
       </c>
       <c r="K2">
-        <v>18.58528968932525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.20279023283442</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>12.33187285661642</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.35346303538318</v>
+        <v>16.38320881103514</v>
       </c>
       <c r="C3">
-        <v>14.31530814966833</v>
+        <v>10.31708548132849</v>
       </c>
       <c r="D3">
-        <v>4.109991091578715</v>
+        <v>4.156030464998032</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.69478158783415</v>
+        <v>61.91314223829873</v>
       </c>
       <c r="G3">
-        <v>11.1055103211481</v>
+        <v>2.129084499295331</v>
       </c>
       <c r="H3">
-        <v>13.47506637387217</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.41007637509279</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.983757471206664</v>
       </c>
       <c r="K3">
-        <v>17.39201627087032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.06496775277498</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11.88140943717314</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.45941851819255</v>
+        <v>15.6417010881043</v>
       </c>
       <c r="C4">
-        <v>13.65763626602749</v>
+        <v>9.770832079110081</v>
       </c>
       <c r="D4">
-        <v>4.057936759436555</v>
+        <v>3.978809916214014</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>17.44724063929974</v>
+        <v>59.82676162046642</v>
       </c>
       <c r="G4">
-        <v>10.91920231940758</v>
+        <v>2.137472746579396</v>
       </c>
       <c r="H4">
-        <v>13.47013728786118</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.65661214203751</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.940897152606494</v>
       </c>
       <c r="K4">
-        <v>16.61926136997767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.33568012586161</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>11.6133763880224</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0829341349659</v>
+        <v>15.34849381396255</v>
       </c>
       <c r="C5">
-        <v>13.38095609013714</v>
+        <v>9.542781324230383</v>
       </c>
       <c r="D5">
-        <v>4.036711672465512</v>
+        <v>3.905103238565292</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17.35441704700353</v>
+        <v>58.96683684499042</v>
       </c>
       <c r="G5">
-        <v>10.85024737958852</v>
+        <v>2.140929692955767</v>
       </c>
       <c r="H5">
-        <v>13.47534614660121</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.76171335625413</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6.924169129833889</v>
       </c>
       <c r="K5">
-        <v>16.29424730303159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.03058060272564</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>11.50636700477157</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01968301891294</v>
+        <v>15.29957084943157</v>
       </c>
       <c r="C6">
-        <v>13.33448820972917</v>
+        <v>9.504580597251879</v>
       </c>
       <c r="D6">
-        <v>4.03318692911425</v>
+        <v>3.892773631405035</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17.33948500602068</v>
+        <v>58.82347456054031</v>
       </c>
       <c r="G6">
-        <v>10.83921392798674</v>
+        <v>2.141506177479219</v>
       </c>
       <c r="H6">
-        <v>13.4766335370937</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.77943454717247</v>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.921435138210611</v>
       </c>
       <c r="K6">
-        <v>16.23966771583882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.97943603001838</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>11.48873419785948</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45439042580786</v>
+        <v>15.63776276434405</v>
       </c>
       <c r="C7">
-        <v>13.6539400481658</v>
+        <v>9.767778751630516</v>
       </c>
       <c r="D7">
-        <v>4.05765054226091</v>
+        <v>3.977821944455372</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>17.44595640795184</v>
+        <v>59.81520307932244</v>
       </c>
       <c r="G7">
-        <v>10.91824434586386</v>
+        <v>2.137519205859296</v>
       </c>
       <c r="H7">
-        <v>13.47017891885212</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.65801129803545</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6.940668605067388</v>
       </c>
       <c r="K7">
-        <v>16.61491908311878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.33159771540163</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>11.61192415212055</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.26616257735301</v>
+        <v>17.24570663668986</v>
       </c>
       <c r="C8">
-        <v>14.98761475078337</v>
+        <v>10.8817941129301</v>
       </c>
       <c r="D8">
-        <v>4.165456230421398</v>
+        <v>4.340149077545203</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>17.98685534105372</v>
+        <v>64.10527100655139</v>
       </c>
       <c r="G8">
-        <v>11.32845273002675</v>
+        <v>2.120252854073743</v>
       </c>
       <c r="H8">
-        <v>13.5062659801175</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.16397210610684</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.032103841278527</v>
       </c>
       <c r="K8">
-        <v>18.18214381020136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.81670464655917</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>12.17481207987051</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44189072549535</v>
+        <v>20.33081186604058</v>
       </c>
       <c r="C9">
-        <v>17.33406780156158</v>
+        <v>12.90781448238099</v>
       </c>
       <c r="D9">
-        <v>4.375515197186315</v>
+        <v>5.006939583727936</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>19.30965301867387</v>
+        <v>72.19557287899477</v>
       </c>
       <c r="G9">
-        <v>12.35794076573502</v>
+        <v>2.08723467945395</v>
       </c>
       <c r="H9">
-        <v>13.83750117213215</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10.37599871562561</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.237252845960445</v>
       </c>
       <c r="K9">
-        <v>20.93965916092786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.49614162753575</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>13.65254917824611</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.55117513709772</v>
+        <v>22.45941000798254</v>
       </c>
       <c r="C10">
-        <v>18.89887576914543</v>
+        <v>14.31388217765484</v>
       </c>
       <c r="D10">
-        <v>4.528460445972761</v>
+        <v>5.47404998818212</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>20.44376468430354</v>
+        <v>77.95211062840922</v>
       </c>
       <c r="G10">
-        <v>13.25106623152262</v>
+        <v>2.063111775731425</v>
       </c>
       <c r="H10">
-        <v>14.26236485342059</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>9.94318840854671</v>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.406213789862616</v>
       </c>
       <c r="K10">
-        <v>22.77710955357549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.33973914228554</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>15.07942072573745</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.46357818816527</v>
+        <v>23.40249440635936</v>
       </c>
       <c r="C11">
-        <v>19.57739707156875</v>
+        <v>14.93959095192341</v>
       </c>
       <c r="D11">
-        <v>4.597661247522492</v>
+        <v>5.682749855426188</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>20.99498410541221</v>
+        <v>80.53699639530733</v>
       </c>
       <c r="G11">
-        <v>13.68645596254069</v>
+        <v>2.052065262937821</v>
       </c>
       <c r="H11">
-        <v>14.49905124024011</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>9.787666117223063</v>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.487702571044396</v>
       </c>
       <c r="K11">
-        <v>23.57319562607126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20.155897181638</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>15.71062154718859</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.80243527972913</v>
+        <v>23.75647707688611</v>
       </c>
       <c r="C12">
-        <v>19.82965404316262</v>
+        <v>15.17493218152266</v>
       </c>
       <c r="D12">
-        <v>4.623808395965134</v>
+        <v>5.761353629413384</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>21.20878710034083</v>
+        <v>81.51187386346766</v>
       </c>
       <c r="G12">
-        <v>13.86380377734107</v>
+        <v>2.047861498283838</v>
       </c>
       <c r="H12">
-        <v>14.59518806151001</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>9.73565235113772</v>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.519292607950569</v>
       </c>
       <c r="K12">
-        <v>23.86903742690535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20.46218047834411</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>15.94742446635016</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.72975000012331</v>
+        <v>23.68037163470473</v>
       </c>
       <c r="C13">
-        <v>19.77553252077558</v>
+        <v>15.1243112820306</v>
       </c>
       <c r="D13">
-        <v>4.61817973815634</v>
+        <v>5.744441717659409</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>21.16251542534126</v>
+        <v>81.30207524915008</v>
       </c>
       <c r="G13">
-        <v>13.82042705056283</v>
+        <v>2.048767956360543</v>
       </c>
       <c r="H13">
-        <v>14.57418999957979</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>9.746532693355862</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.512455379378983</v>
       </c>
       <c r="K13">
-        <v>23.80557075432991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20.39633229566098</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>15.89651715279271</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.49158868814548</v>
+        <v>23.4316766539692</v>
       </c>
       <c r="C14">
-        <v>19.5982436383363</v>
+        <v>14.95898215093463</v>
       </c>
       <c r="D14">
-        <v>4.599813557877157</v>
+        <v>5.689224415681569</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>21.01247224952965</v>
+        <v>80.61727334826658</v>
       </c>
       <c r="G14">
-        <v>13.70027710907377</v>
+        <v>2.051719896230157</v>
       </c>
       <c r="H14">
-        <v>14.50682865195118</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9.783243384064075</v>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.490286406801756</v>
       </c>
       <c r="K14">
-        <v>23.5976466934954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20.18114806271694</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>15.7301457058508</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.34484586382852</v>
+        <v>23.27895046025449</v>
       </c>
       <c r="C15">
-        <v>19.48904237898486</v>
+        <v>14.85751789439704</v>
       </c>
       <c r="D15">
-        <v>4.588556160519744</v>
+        <v>5.655350624950068</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>20.92122638810388</v>
+        <v>80.19732813550897</v>
       </c>
       <c r="G15">
-        <v>13.62816862572509</v>
+        <v>2.053525016789297</v>
       </c>
       <c r="H15">
-        <v>14.46642270415592</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>9.80665482712673</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.476804783045994</v>
       </c>
       <c r="K15">
-        <v>23.46955869134627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20.0489946592258</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>15.62796088191781</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.49060978979088</v>
+        <v>22.39730897730346</v>
       </c>
       <c r="C16">
-        <v>18.85387126812817</v>
+        <v>14.27274318178215</v>
       </c>
       <c r="D16">
-        <v>4.523930085784673</v>
+        <v>5.460344316901287</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>20.40845072909492</v>
+        <v>77.78257215617013</v>
       </c>
       <c r="G16">
-        <v>13.22319272462609</v>
+        <v>2.063831391286095</v>
       </c>
       <c r="H16">
-        <v>14.24779413989001</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.954261944961226</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.40098684716962</v>
       </c>
       <c r="K16">
-        <v>22.72429140622639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>19.2859858725549</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>15.03783919547573</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95458128432679</v>
+        <v>21.85030639194033</v>
       </c>
       <c r="C17">
-        <v>18.45575376221575</v>
+        <v>13.91070113777208</v>
       </c>
       <c r="D17">
-        <v>4.484184583059181</v>
+        <v>5.339820837737276</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>20.10291411629669</v>
+        <v>76.29308814878402</v>
       </c>
       <c r="G17">
-        <v>12.98216138578046</v>
+        <v>2.070128617813171</v>
       </c>
       <c r="H17">
-        <v>14.12499471644921</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10.05604072965606</v>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.355703985602394</v>
       </c>
       <c r="K17">
-        <v>22.25697418017684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>18.81244329982172</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>14.6714706070494</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64182851547637</v>
+        <v>21.53327664811875</v>
       </c>
       <c r="C18">
-        <v>18.22362411684911</v>
+        <v>13.70112628333715</v>
       </c>
       <c r="D18">
-        <v>4.46128882094319</v>
+        <v>5.270133737260261</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>19.93050130902578</v>
+        <v>75.43312498218152</v>
       </c>
       <c r="G18">
-        <v>12.8462692949953</v>
+        <v>2.073744459465615</v>
       </c>
       <c r="H18">
-        <v>14.05843696667462</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>10.11841269789932</v>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.330089449116439</v>
       </c>
       <c r="K18">
-        <v>21.98443466537193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>18.53792445606582</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>14.4590369827356</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.53516897624257</v>
+        <v>21.42550888146235</v>
       </c>
       <c r="C19">
-        <v>18.14448610426863</v>
+        <v>13.62992699225168</v>
       </c>
       <c r="D19">
-        <v>4.453530821418887</v>
+        <v>5.246472905130559</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>19.87269653200771</v>
+        <v>75.14137527733938</v>
       </c>
       <c r="G19">
-        <v>12.80073162772984</v>
+        <v>2.074967947392245</v>
       </c>
       <c r="H19">
-        <v>14.03659243348228</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10.14016204258018</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.321488986389743</v>
       </c>
       <c r="K19">
-        <v>21.89151032621627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>18.4445951514865</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>14.38680737673158</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.01210142306754</v>
+        <v>21.90878178172352</v>
       </c>
       <c r="C20">
-        <v>18.49845859554081</v>
+        <v>13.94937691778681</v>
       </c>
       <c r="D20">
-        <v>4.488419238524168</v>
+        <v>5.35268777435116</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>20.13509510191036</v>
+        <v>76.45197721741749</v>
       </c>
       <c r="G20">
-        <v>13.00753618874728</v>
+        <v>2.069458972926068</v>
       </c>
       <c r="H20">
-        <v>14.13764329964486</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.04480321678759</v>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.360479375424625</v>
       </c>
       <c r="K20">
-        <v>22.3071084131143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>18.86307212472833</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>14.71064557104114</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.56172187000798</v>
+        <v>23.50480537005524</v>
       </c>
       <c r="C21">
-        <v>19.65044391159546</v>
+        <v>15.00758322339098</v>
       </c>
       <c r="D21">
-        <v>4.605209733306677</v>
+        <v>5.705453583213069</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>21.05640604187884</v>
+        <v>80.81851515318534</v>
       </c>
       <c r="G21">
-        <v>13.73500038210069</v>
+        <v>2.050853491748531</v>
       </c>
       <c r="H21">
-        <v>14.52643575115749</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>9.772265988755338</v>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.49677751339977</v>
       </c>
       <c r="K21">
-        <v>23.65887065363074</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>20.24442423890371</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>15.77907014934894</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.53579189456935</v>
+        <v>24.52987559895461</v>
       </c>
       <c r="C22">
-        <v>20.37608594665987</v>
+        <v>15.69009151118094</v>
       </c>
       <c r="D22">
-        <v>4.68120294160842</v>
+        <v>5.933594326733295</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>21.68808257245604</v>
+        <v>83.64984621687184</v>
       </c>
       <c r="G22">
-        <v>14.30982059386936</v>
+        <v>2.038567021953712</v>
       </c>
       <c r="H22">
-        <v>14.81856772273742</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>9.634738288866371</v>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.590163300995107</v>
       </c>
       <c r="K22">
-        <v>24.50963076982243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>21.13129844877349</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16.46462181397601</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.01940895114238</v>
+        <v>23.98424002997665</v>
       </c>
       <c r="C23">
-        <v>19.99125233061829</v>
+        <v>15.32650359122858</v>
       </c>
       <c r="D23">
-        <v>4.640675256935038</v>
+        <v>5.812006428026509</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>21.34824124325043</v>
+        <v>82.14038815816183</v>
       </c>
       <c r="G23">
-        <v>13.99418310831178</v>
+        <v>2.045139999355861</v>
       </c>
       <c r="H23">
-        <v>14.65909389530152</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>9.704094605202414</v>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.539902086713663</v>
       </c>
       <c r="K23">
-        <v>24.05851904412269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>20.65924066677581</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>16.09976151450474</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.98611085226295</v>
+        <v>21.88235303802579</v>
       </c>
       <c r="C24">
-        <v>18.47916186073875</v>
+        <v>13.93189608733508</v>
       </c>
       <c r="D24">
-        <v>4.486504892322747</v>
+        <v>5.34687187606638</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>20.12053597225437</v>
+        <v>76.38015486765451</v>
       </c>
       <c r="G24">
-        <v>12.99605588776372</v>
+        <v>2.069761732707913</v>
       </c>
       <c r="H24">
-        <v>14.1319123081414</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10.04987174900684</v>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.35831912086278</v>
       </c>
       <c r="K24">
-        <v>22.28445479627464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>18.84018994601379</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>14.69294021295545</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.62255940007442</v>
+        <v>19.52181431570273</v>
       </c>
       <c r="C25">
-        <v>16.72761262059784</v>
+        <v>12.37537343912497</v>
       </c>
       <c r="D25">
-        <v>4.318898212784326</v>
+        <v>4.830887304801078</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>18.92336796463741</v>
+        <v>70.04132310180195</v>
       </c>
       <c r="G25">
-        <v>12.05525585542886</v>
+        <v>2.096112664441705</v>
       </c>
       <c r="H25">
-        <v>13.71751380974307</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>10.56644162709816</v>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.178750662551534</v>
       </c>
       <c r="K25">
-        <v>20.22711745336629</v>
+        <v>16.79460928313228</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>13.10916435704566</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.68931121170171</v>
+        <v>21.53305056224605</v>
       </c>
       <c r="C2">
-        <v>11.17245973412382</v>
+        <v>17.51549948661209</v>
       </c>
       <c r="D2">
-        <v>4.435247323428807</v>
+        <v>5.306273148776971</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>65.24597627013472</v>
+        <v>40.23637782261618</v>
       </c>
       <c r="G2">
-        <v>2.115643682455133</v>
+        <v>2.084124265654717</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.34979914582716</v>
       </c>
       <c r="J2">
-        <v>7.058545505358313</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.20279023283442</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.691995675540555</v>
       </c>
       <c r="M2">
-        <v>12.33187285661642</v>
+        <v>12.56057693439709</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.38320881103514</v>
+        <v>19.99017484643203</v>
       </c>
       <c r="C3">
-        <v>10.31708548132849</v>
+        <v>16.30550205837935</v>
       </c>
       <c r="D3">
-        <v>4.156030464998032</v>
+        <v>5.342509397138622</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>61.91314223829873</v>
+        <v>38.35176192452776</v>
       </c>
       <c r="G3">
-        <v>2.129084499295331</v>
+        <v>2.096013795268588</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>26.55053821939524</v>
       </c>
       <c r="J3">
-        <v>6.983757471206664</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.06496775277498</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.630951487466448</v>
       </c>
       <c r="M3">
-        <v>11.88140943717314</v>
+        <v>12.01662021724743</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.6417010881043</v>
+        <v>18.99553766516006</v>
       </c>
       <c r="C4">
-        <v>9.770832079110081</v>
+        <v>15.52699682885362</v>
       </c>
       <c r="D4">
-        <v>3.978809916214014</v>
+        <v>5.367299413288096</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>59.82676162046642</v>
+        <v>37.19133455667109</v>
       </c>
       <c r="G4">
-        <v>2.137472746579396</v>
+        <v>2.103464220394605</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26.0738961761146</v>
       </c>
       <c r="J4">
-        <v>6.940897152606494</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.33568012586161</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.596886266363898</v>
       </c>
       <c r="M4">
-        <v>11.6133763880224</v>
+        <v>11.68054658102248</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.34849381396255</v>
+        <v>18.57814812983044</v>
       </c>
       <c r="C5">
-        <v>9.542781324230383</v>
+        <v>15.20064281848666</v>
       </c>
       <c r="D5">
-        <v>3.905103238565292</v>
+        <v>5.377999654942964</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58.96683684499042</v>
+        <v>36.71800587922451</v>
       </c>
       <c r="G5">
-        <v>2.140929692955767</v>
+        <v>2.106541352723251</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>25.88320346936</v>
       </c>
       <c r="J5">
-        <v>6.924169129833889</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.03058060272564</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.583840520356487</v>
       </c>
       <c r="M5">
-        <v>11.50636700477157</v>
+        <v>11.54322336353117</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.29957084943157</v>
+        <v>18.50810750509275</v>
       </c>
       <c r="C6">
-        <v>9.504580597251879</v>
+        <v>15.14589748868968</v>
       </c>
       <c r="D6">
-        <v>3.892773631405035</v>
+        <v>5.379811432915113</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>58.82347456054031</v>
+        <v>36.63939592526247</v>
       </c>
       <c r="G6">
-        <v>2.141506177479219</v>
+        <v>2.107054875906509</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>25.85175309313905</v>
       </c>
       <c r="J6">
-        <v>6.921435138210611</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.97943603001838</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.581724118168941</v>
       </c>
       <c r="M6">
-        <v>11.48873419785948</v>
+        <v>11.52040356636071</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.63776276434405</v>
+        <v>18.98995767361231</v>
       </c>
       <c r="C7">
-        <v>9.767778751630516</v>
+        <v>15.52263258237068</v>
       </c>
       <c r="D7">
-        <v>3.977821944455372</v>
+        <v>5.36744134962104</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>59.81520307932244</v>
+        <v>37.18495231726149</v>
       </c>
       <c r="G7">
-        <v>2.137519205859296</v>
+        <v>2.103505549469402</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>26.07131008245573</v>
       </c>
       <c r="J7">
-        <v>6.940668605067388</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.33159771540163</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.596706971552907</v>
       </c>
       <c r="M7">
-        <v>11.61192415212055</v>
+        <v>11.67869587012463</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.24570663668986</v>
+        <v>21.01077519238823</v>
       </c>
       <c r="C8">
-        <v>10.8817941129301</v>
+        <v>17.10556846581942</v>
       </c>
       <c r="D8">
-        <v>4.340149077545203</v>
+        <v>5.318214144756677</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>64.10527100655139</v>
+        <v>39.58743521108853</v>
       </c>
       <c r="G8">
-        <v>2.120252854073743</v>
+        <v>2.088194648370424</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>27.07127933453084</v>
       </c>
       <c r="J8">
-        <v>7.032103841278527</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.81670464655917</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.670224682631733</v>
       </c>
       <c r="M8">
-        <v>12.17481207987051</v>
+        <v>12.37353594882877</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.33081186604058</v>
+        <v>24.60715895277862</v>
       </c>
       <c r="C9">
-        <v>12.90781448238099</v>
+        <v>19.9359728770082</v>
       </c>
       <c r="D9">
-        <v>5.006939583727936</v>
+        <v>5.243924711902266</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.19557287899477</v>
+        <v>44.26177607411616</v>
       </c>
       <c r="G9">
-        <v>2.08723467945395</v>
+        <v>2.059198536475583</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.1453512091641</v>
       </c>
       <c r="J9">
-        <v>7.237252845960445</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.49614162753575</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.842569001923533</v>
       </c>
       <c r="M9">
-        <v>13.65254917824611</v>
+        <v>13.82122725251518</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.45941000798254</v>
+        <v>27.04027249343581</v>
       </c>
       <c r="C10">
-        <v>14.31388217765484</v>
+        <v>21.86202308728671</v>
       </c>
       <c r="D10">
-        <v>5.47404998818212</v>
+        <v>5.206243258878898</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.95211062840922</v>
+        <v>47.66756941290717</v>
       </c>
       <c r="G10">
-        <v>2.063111775731425</v>
+        <v>2.038265107490384</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30.74210047365505</v>
       </c>
       <c r="J10">
-        <v>7.406213789862616</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.33973914228554</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.987957199371659</v>
       </c>
       <c r="M10">
-        <v>15.07942072573745</v>
+        <v>15.15379282393806</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.40249440635936</v>
+        <v>28.1054634338816</v>
       </c>
       <c r="C11">
-        <v>14.93959095192341</v>
+        <v>22.70842728091307</v>
       </c>
       <c r="D11">
-        <v>5.682749855426188</v>
+        <v>5.193661008530543</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.53699639530733</v>
+        <v>49.21220308541088</v>
       </c>
       <c r="G11">
-        <v>2.052065262937821</v>
+        <v>2.028755250119414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.48605721256945</v>
       </c>
       <c r="J11">
-        <v>7.487702571044396</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.155897181638</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.058565174311117</v>
       </c>
       <c r="M11">
-        <v>15.71062154718859</v>
+        <v>15.73692787268684</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.75647707688611</v>
+        <v>28.50319376741261</v>
       </c>
       <c r="C12">
-        <v>15.17493218152266</v>
+        <v>23.02499943555797</v>
       </c>
       <c r="D12">
-        <v>5.761353629413384</v>
+        <v>5.189640500007101</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.51187386346766</v>
+        <v>49.79674862832425</v>
       </c>
       <c r="G12">
-        <v>2.047861498283838</v>
+        <v>2.02514942876175</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.77052013046004</v>
       </c>
       <c r="J12">
-        <v>7.519292607950569</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.46218047834411</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.085982499076827</v>
       </c>
       <c r="M12">
-        <v>15.94742446635016</v>
+        <v>15.95462755304764</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.68037163470473</v>
+        <v>28.41777984357853</v>
       </c>
       <c r="C13">
-        <v>15.1243112820306</v>
+        <v>22.9569894109267</v>
       </c>
       <c r="D13">
-        <v>5.744441717659409</v>
+        <v>5.190471740035006</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.30207524915008</v>
+        <v>49.67086643757169</v>
       </c>
       <c r="G13">
-        <v>2.048767956360543</v>
+        <v>2.025926327192265</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.70912978255743</v>
       </c>
       <c r="J13">
-        <v>7.512455379378983</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.39633229566098</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.080046818647549</v>
       </c>
       <c r="M13">
-        <v>15.89651715279271</v>
+        <v>15.90787746748188</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.4316766539692</v>
+        <v>28.13829566462086</v>
       </c>
       <c r="C14">
-        <v>14.95898215093463</v>
+        <v>22.73454877339799</v>
       </c>
       <c r="D14">
-        <v>5.689224415681569</v>
+        <v>5.193314770901394</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.61727334826658</v>
+        <v>49.26029920804796</v>
       </c>
       <c r="G14">
-        <v>2.051719896230157</v>
+        <v>2.028458730719958</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.50940369708658</v>
       </c>
       <c r="J14">
-        <v>7.490286406801756</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.18114806271694</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.060806964025756</v>
       </c>
       <c r="M14">
-        <v>15.7301457058508</v>
+        <v>15.75489950054801</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.27895046025449</v>
+        <v>27.96638112116107</v>
       </c>
       <c r="C15">
-        <v>14.85751789439704</v>
+        <v>22.59779484486581</v>
       </c>
       <c r="D15">
-        <v>5.655350624950068</v>
+        <v>5.195155969642514</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.19732813550897</v>
+        <v>49.00877784426513</v>
       </c>
       <c r="G15">
-        <v>2.053525016789297</v>
+        <v>2.030009087176696</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.38743045562636</v>
       </c>
       <c r="J15">
-        <v>7.476804783045994</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.0489946592258</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.049111684914926</v>
       </c>
       <c r="M15">
-        <v>15.62796088191781</v>
+        <v>15.66079584203876</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.39730897730346</v>
+        <v>26.96985094307514</v>
       </c>
       <c r="C16">
-        <v>14.27274318178215</v>
+        <v>21.80613739567195</v>
       </c>
       <c r="D16">
-        <v>5.460344316901287</v>
+        <v>5.207164551106634</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.78257215617013</v>
+        <v>47.56655181972759</v>
       </c>
       <c r="G16">
-        <v>2.063831391286095</v>
+        <v>2.03888632374331</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30.69385170299966</v>
       </c>
       <c r="J16">
-        <v>7.40098684716962</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.2859858725549</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.983435786098739</v>
       </c>
       <c r="M16">
-        <v>15.03783919547573</v>
+        <v>15.11523570832329</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.85030639194033</v>
+        <v>26.34808290677698</v>
       </c>
       <c r="C17">
-        <v>13.91070113777208</v>
+        <v>21.31308301119346</v>
       </c>
       <c r="D17">
-        <v>5.339820837737276</v>
+        <v>5.215758098355608</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.29308814878402</v>
+        <v>46.68075835906157</v>
       </c>
       <c r="G17">
-        <v>2.070128617813171</v>
+        <v>2.044331179802668</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.27299830028231</v>
       </c>
       <c r="J17">
-        <v>7.355703985602394</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.81244329982172</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.944315324130936</v>
       </c>
       <c r="M17">
-        <v>14.6714706070494</v>
+        <v>14.77477798363644</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53327664811875</v>
+        <v>25.98651474667038</v>
       </c>
       <c r="C18">
-        <v>13.70112628333715</v>
+        <v>21.02666667591167</v>
       </c>
       <c r="D18">
-        <v>5.270133737260261</v>
+        <v>5.221123996383822</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.43312498218152</v>
+        <v>46.17080585193253</v>
       </c>
       <c r="G18">
-        <v>2.073744459465615</v>
+        <v>2.047464567101088</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30.03257330260695</v>
       </c>
       <c r="J18">
-        <v>7.330089449116439</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.53792445606582</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.922232557696746</v>
       </c>
       <c r="M18">
-        <v>14.4590369827356</v>
+        <v>14.57677262107903</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.42550888146235</v>
+        <v>25.86340663827696</v>
       </c>
       <c r="C19">
-        <v>13.62992699225168</v>
+        <v>20.92919639240753</v>
       </c>
       <c r="D19">
-        <v>5.246472905130559</v>
+        <v>5.223010980772093</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.14137527733938</v>
+        <v>45.99805781811119</v>
       </c>
       <c r="G19">
-        <v>2.074967947392245</v>
+        <v>2.048525944674636</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>29.95144561561145</v>
       </c>
       <c r="J19">
-        <v>7.321488986389743</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.4445951514865</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.914826512112791</v>
       </c>
       <c r="M19">
-        <v>14.38680737673158</v>
+        <v>14.5093509253943</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.90878178172352</v>
+        <v>26.41467691385949</v>
       </c>
       <c r="C20">
-        <v>13.94937691778681</v>
+        <v>21.3658595222966</v>
       </c>
       <c r="D20">
-        <v>5.35268777435116</v>
+        <v>5.214798909973268</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.45197721741749</v>
+        <v>46.77509930462638</v>
       </c>
       <c r="G20">
-        <v>2.069458972926068</v>
+        <v>2.04375143890319</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.31762793783658</v>
       </c>
       <c r="J20">
-        <v>7.360479375424625</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.86307212472833</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.948436222139977</v>
       </c>
       <c r="M20">
-        <v>14.71064557104114</v>
+        <v>14.81124489918907</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.50480537005524</v>
+        <v>28.22053679034591</v>
       </c>
       <c r="C21">
-        <v>15.00758322339098</v>
+        <v>22.79998905252782</v>
       </c>
       <c r="D21">
-        <v>5.705453583213069</v>
+        <v>5.19245873667843</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.81851515318534</v>
+        <v>49.3808997229612</v>
       </c>
       <c r="G21">
-        <v>2.050853491748531</v>
+        <v>2.027715084982398</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.56799158928372</v>
       </c>
       <c r="J21">
-        <v>7.49677751339977</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.24442423890371</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.066439411648612</v>
       </c>
       <c r="M21">
-        <v>15.77907014934894</v>
+        <v>15.79991586340869</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.52987559895461</v>
+        <v>29.36813084912836</v>
       </c>
       <c r="C22">
-        <v>15.69009151118094</v>
+        <v>23.71448795016081</v>
       </c>
       <c r="D22">
-        <v>5.933594326733295</v>
+        <v>5.182246600755723</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.64984621687184</v>
+        <v>51.0820185955487</v>
       </c>
       <c r="G22">
-        <v>2.038567021953712</v>
+        <v>2.017203589042951</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.40131728584772</v>
       </c>
       <c r="J22">
-        <v>7.590163300995107</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.13129844877349</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.147543784602252</v>
       </c>
       <c r="M22">
-        <v>16.46462181397601</v>
+        <v>16.42798774495522</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.98424002997665</v>
+        <v>28.75849452706957</v>
       </c>
       <c r="C23">
-        <v>15.32650359122858</v>
+        <v>23.22836300021148</v>
       </c>
       <c r="D23">
-        <v>5.812006428026509</v>
+        <v>5.187262607883856</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.14038815816183</v>
+        <v>50.17413424025254</v>
       </c>
       <c r="G23">
-        <v>2.045139999355861</v>
+        <v>2.022818995949469</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>31.95498844765124</v>
       </c>
       <c r="J23">
-        <v>7.539902086713663</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.65924066677581</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.103878857953851</v>
       </c>
       <c r="M23">
-        <v>16.09976151450474</v>
+        <v>16.09435738973973</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.88235303802579</v>
+        <v>26.38458257685117</v>
       </c>
       <c r="C24">
-        <v>13.93189608733508</v>
+        <v>21.3420084837489</v>
       </c>
       <c r="D24">
-        <v>5.34687187606638</v>
+        <v>5.215231240690518</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.38015486765451</v>
+        <v>46.73244995791951</v>
       </c>
       <c r="G24">
-        <v>2.069761732707913</v>
+        <v>2.044013529733773</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.29744613064499</v>
       </c>
       <c r="J24">
-        <v>7.35831912086278</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.84018994601379</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.946571895690609</v>
       </c>
       <c r="M24">
-        <v>14.69294021295545</v>
+        <v>14.79476529679431</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.52181431570273</v>
+        <v>23.67210902194897</v>
       </c>
       <c r="C25">
-        <v>12.37537343912497</v>
+        <v>19.19829333052537</v>
       </c>
       <c r="D25">
-        <v>4.830887304801078</v>
+        <v>5.261323664666605</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.04132310180195</v>
+        <v>43.00226644450035</v>
       </c>
       <c r="G25">
-        <v>2.096112664441705</v>
+        <v>2.066957314522019</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>28.57186658252641</v>
       </c>
       <c r="J25">
-        <v>7.178750662551534</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.79460928313228</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.792771588585608</v>
       </c>
       <c r="M25">
-        <v>13.10916435704566</v>
+        <v>13.35458470335567</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.53305056224605</v>
+        <v>17.99061042797839</v>
       </c>
       <c r="C2">
-        <v>17.51549948661209</v>
+        <v>9.736186189957387</v>
       </c>
       <c r="D2">
-        <v>5.306273148776971</v>
+        <v>7.405907095948355</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.23637782261618</v>
+        <v>39.5819224932138</v>
       </c>
       <c r="G2">
-        <v>2.084124265654717</v>
+        <v>3.694501517802035</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.34979914582716</v>
+        <v>31.5548842137092</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.691995675540555</v>
+        <v>10.67039657122419</v>
       </c>
       <c r="M2">
-        <v>12.56057693439709</v>
+        <v>16.58805167610401</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.99017484643203</v>
+        <v>17.63132628203301</v>
       </c>
       <c r="C3">
-        <v>16.30550205837935</v>
+        <v>9.110936423818403</v>
       </c>
       <c r="D3">
-        <v>5.342509397138622</v>
+        <v>7.418924918032643</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.35176192452776</v>
+        <v>39.19784056479596</v>
       </c>
       <c r="G3">
-        <v>2.096013795268588</v>
+        <v>3.69860441482674</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.55053821939524</v>
+        <v>31.44829799129273</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.630951487466448</v>
+        <v>10.68345813809945</v>
       </c>
       <c r="M3">
-        <v>12.01662021724743</v>
+        <v>16.54133220765944</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.99553766516006</v>
+        <v>17.41311715636152</v>
       </c>
       <c r="C4">
-        <v>15.52699682885362</v>
+        <v>8.703597655823339</v>
       </c>
       <c r="D4">
-        <v>5.367299413288096</v>
+        <v>7.427654552514705</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.19133455667109</v>
+        <v>38.97089404488143</v>
       </c>
       <c r="G4">
-        <v>2.103464220394605</v>
+        <v>3.701252778963408</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.0738961761146</v>
+        <v>31.3893207206359</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.596886266363898</v>
+        <v>10.69293559898511</v>
       </c>
       <c r="M4">
-        <v>11.68054658102248</v>
+        <v>16.51649491236203</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57814812983044</v>
+        <v>17.3249380912756</v>
       </c>
       <c r="C5">
-        <v>15.20064281848666</v>
+        <v>8.531703609648279</v>
       </c>
       <c r="D5">
-        <v>5.377999654942964</v>
+        <v>7.431396400340343</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.71800587922451</v>
+        <v>38.88072487710117</v>
       </c>
       <c r="G5">
-        <v>2.106541352723251</v>
+        <v>3.70236461862738</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.88320346936</v>
+        <v>31.36691948606756</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.583840520356487</v>
+        <v>10.69716417969981</v>
       </c>
       <c r="M5">
-        <v>11.54322336353117</v>
+        <v>16.50734840591493</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.50810750509275</v>
+        <v>17.31034503825207</v>
       </c>
       <c r="C6">
-        <v>15.14589748868968</v>
+        <v>8.502804202461817</v>
       </c>
       <c r="D6">
-        <v>5.379811432915113</v>
+        <v>7.432028848815533</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.63939592526247</v>
+        <v>38.86589431271032</v>
       </c>
       <c r="G6">
-        <v>2.107054875906509</v>
+        <v>3.702551212099488</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.85175309313905</v>
+        <v>31.36329852138363</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.581724118168941</v>
+        <v>10.69788846082021</v>
       </c>
       <c r="M6">
-        <v>11.52040356636071</v>
+        <v>16.50588870487701</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.98995767361231</v>
+        <v>17.41192474743401</v>
       </c>
       <c r="C7">
-        <v>15.52263258237068</v>
+        <v>8.701303330594126</v>
       </c>
       <c r="D7">
-        <v>5.36744134962104</v>
+        <v>7.427704270605743</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.18495231726149</v>
+        <v>38.96966852357533</v>
       </c>
       <c r="G7">
-        <v>2.103505549469402</v>
+        <v>3.701267641416941</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.07131008245573</v>
+        <v>31.38901199323647</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.596706971552907</v>
+        <v>10.69299114355957</v>
       </c>
       <c r="M7">
-        <v>11.67869587012463</v>
+        <v>16.51636760347276</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01077519238823</v>
+        <v>17.866317004443</v>
       </c>
       <c r="C8">
-        <v>17.10556846581942</v>
+        <v>9.525458033553328</v>
       </c>
       <c r="D8">
-        <v>5.318214144756677</v>
+        <v>7.410242280678305</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.58743521108853</v>
+        <v>39.44769737074365</v>
       </c>
       <c r="G8">
-        <v>2.088194648370424</v>
+        <v>3.695889465695571</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.07127933453084</v>
+        <v>31.51679536652118</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.670224682631733</v>
+        <v>10.67459763161124</v>
       </c>
       <c r="M8">
-        <v>12.37353594882877</v>
+        <v>16.57114858571871</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60715895277862</v>
+        <v>18.77024427204812</v>
       </c>
       <c r="C9">
-        <v>19.9359728770082</v>
+        <v>10.95617882675835</v>
       </c>
       <c r="D9">
-        <v>5.243924711902266</v>
+        <v>7.381879365815343</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.26177607411616</v>
+        <v>40.451820455884</v>
       </c>
       <c r="G9">
-        <v>2.059198536475583</v>
+        <v>3.686361877666633</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.1453512091641</v>
+        <v>31.81833505333871</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.842569001923533</v>
+        <v>10.65009671745467</v>
       </c>
       <c r="M9">
-        <v>13.82122725251518</v>
+        <v>16.70875455574787</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.04027249343581</v>
+        <v>19.43423138102909</v>
       </c>
       <c r="C10">
-        <v>21.86202308728671</v>
+        <v>11.89509230529709</v>
       </c>
       <c r="D10">
-        <v>5.206243258878898</v>
+        <v>7.364673973617681</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.66756941290717</v>
+        <v>41.22489333074297</v>
       </c>
       <c r="G10">
-        <v>2.038265107490384</v>
+        <v>3.679974908001478</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.74210047365505</v>
+        <v>32.07034872067238</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.987957199371659</v>
+        <v>10.6391518825724</v>
       </c>
       <c r="M10">
-        <v>15.15379282393806</v>
+        <v>16.82771283879358</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.1054634338816</v>
+        <v>19.73467416903918</v>
       </c>
       <c r="C11">
-        <v>22.70842728091307</v>
+        <v>12.29805868762137</v>
       </c>
       <c r="D11">
-        <v>5.193661008530543</v>
+        <v>7.357646063046038</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.21220308541088</v>
+        <v>41.58305948832939</v>
       </c>
       <c r="G11">
-        <v>2.028755250119414</v>
+        <v>3.677200638775674</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.48605721256945</v>
+        <v>32.19144875328072</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.058565174311117</v>
+        <v>10.63570474913792</v>
       </c>
       <c r="M11">
-        <v>15.73692787268684</v>
+        <v>16.88557351621091</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50319376741261</v>
+        <v>19.84808819005716</v>
       </c>
       <c r="C12">
-        <v>23.02499943555797</v>
+        <v>12.44719552162466</v>
       </c>
       <c r="D12">
-        <v>5.189640500007101</v>
+        <v>7.355100530084173</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.79674862832425</v>
+        <v>41.71951736499603</v>
       </c>
       <c r="G12">
-        <v>2.02514942876175</v>
+        <v>3.676168824652074</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.77052013046004</v>
+        <v>32.23821791050844</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.085982499076827</v>
+        <v>10.63461953698478</v>
       </c>
       <c r="M12">
-        <v>15.95462755304764</v>
+        <v>16.90800974491433</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.41777984357853</v>
+        <v>19.8236802651133</v>
       </c>
       <c r="C13">
-        <v>22.9569894109267</v>
+        <v>12.41522977695222</v>
       </c>
       <c r="D13">
-        <v>5.190471740035006</v>
+        <v>7.355643592205648</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.67086643757169</v>
+        <v>41.69009357608308</v>
       </c>
       <c r="G13">
-        <v>2.025926327192265</v>
+        <v>3.676390212730437</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.70912978255743</v>
+        <v>32.22810510466061</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.080046818647549</v>
+        <v>10.63484346842182</v>
       </c>
       <c r="M13">
-        <v>15.90787746748188</v>
+        <v>16.90315453933651</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.13829566462086</v>
+        <v>19.74401266261793</v>
       </c>
       <c r="C14">
-        <v>22.73454877339799</v>
+        <v>12.31039747592347</v>
       </c>
       <c r="D14">
-        <v>5.193314770901394</v>
+        <v>7.357434314848328</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.26029920804796</v>
+        <v>41.59426996999751</v>
       </c>
       <c r="G14">
-        <v>2.028458730719958</v>
+        <v>3.677115375911724</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.50940369708658</v>
+        <v>32.19527832382004</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.060806964025756</v>
+        <v>10.6356110569735</v>
       </c>
       <c r="M14">
-        <v>15.75489950054801</v>
+        <v>16.8874089009988</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.96638112116107</v>
+        <v>19.69516382845474</v>
       </c>
       <c r="C15">
-        <v>22.59779484486581</v>
+        <v>12.24573481369464</v>
       </c>
       <c r="D15">
-        <v>5.195155969642514</v>
+        <v>7.358546289536744</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.00877784426513</v>
+        <v>41.53567994703744</v>
       </c>
       <c r="G15">
-        <v>2.030009087176696</v>
+        <v>3.677561996301446</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.38743045562636</v>
+        <v>32.17528909279972</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.049111684914926</v>
+        <v>10.63610989171203</v>
       </c>
       <c r="M15">
-        <v>15.66079584203876</v>
+        <v>16.87783229710905</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.96985094307514</v>
+        <v>19.41455345794681</v>
       </c>
       <c r="C16">
-        <v>21.80613739567195</v>
+        <v>11.86827280666061</v>
       </c>
       <c r="D16">
-        <v>5.207164551106634</v>
+        <v>7.365149417216246</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.56655181972759</v>
+        <v>41.20160797599189</v>
       </c>
       <c r="G16">
-        <v>2.03888632374331</v>
+        <v>3.680158842370889</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.69385170299966</v>
+        <v>32.06256304521436</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.983435786098739</v>
+        <v>10.63940797430399</v>
       </c>
       <c r="M16">
-        <v>15.11523570832329</v>
+        <v>16.82400579179253</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.34808290677698</v>
+        <v>19.2419044343693</v>
       </c>
       <c r="C17">
-        <v>21.31308301119346</v>
+        <v>11.63053710155244</v>
       </c>
       <c r="D17">
-        <v>5.215758098355608</v>
+        <v>7.369405482496541</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.68075835906157</v>
+        <v>40.9982536982896</v>
       </c>
       <c r="G17">
-        <v>2.044331179802668</v>
+        <v>3.681785437031948</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.27299830028231</v>
+        <v>31.99505140129386</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.944315324130936</v>
+        <v>10.64182348694252</v>
       </c>
       <c r="M17">
-        <v>14.77477798363644</v>
+        <v>16.79193540679019</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.98651474667038</v>
+        <v>19.14245701321621</v>
       </c>
       <c r="C18">
-        <v>21.02666667591167</v>
+        <v>11.49152374791765</v>
       </c>
       <c r="D18">
-        <v>5.221123996383822</v>
+        <v>7.371928601589181</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.17080585193253</v>
+        <v>40.88190710299179</v>
       </c>
       <c r="G18">
-        <v>2.047464567101088</v>
+        <v>3.682733367395256</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.03257330260695</v>
+        <v>31.9568294763464</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.922232557696746</v>
+        <v>10.64335700993533</v>
       </c>
       <c r="M18">
-        <v>14.57677262107903</v>
+        <v>16.77384279059712</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.86340663827696</v>
+        <v>19.1087649947202</v>
       </c>
       <c r="C19">
-        <v>20.92919639240753</v>
+        <v>11.4440651980084</v>
       </c>
       <c r="D19">
-        <v>5.223010980772093</v>
+        <v>7.372795764787194</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.99805781811119</v>
+        <v>40.84262337502601</v>
       </c>
       <c r="G19">
-        <v>2.048525944674636</v>
+        <v>3.683056446297649</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.95144561561145</v>
+        <v>31.94399328610236</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.914826512112791</v>
+        <v>10.64390100087938</v>
       </c>
       <c r="M19">
-        <v>14.5093509253943</v>
+        <v>16.76777802499736</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.41467691385949</v>
+        <v>19.2602990828007</v>
       </c>
       <c r="C20">
-        <v>21.3658595222966</v>
+        <v>11.65607972389272</v>
       </c>
       <c r="D20">
-        <v>5.214798909973268</v>
+        <v>7.368944633556533</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.77509930462638</v>
+        <v>41.0198379685718</v>
       </c>
       <c r="G20">
-        <v>2.04375143890319</v>
+        <v>3.681611005342314</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.31762793783658</v>
+        <v>32.00217522400011</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.948436222139977</v>
+        <v>10.64155142968137</v>
       </c>
       <c r="M20">
-        <v>14.81124489918907</v>
+        <v>16.79531286797156</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.22053679034591</v>
+        <v>19.76742362987817</v>
       </c>
       <c r="C21">
-        <v>22.79998905252782</v>
+        <v>12.34128298482096</v>
       </c>
       <c r="D21">
-        <v>5.19245873667843</v>
+        <v>7.356905186639271</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.3808997229612</v>
+        <v>41.62239405521003</v>
       </c>
       <c r="G21">
-        <v>2.027715084982398</v>
+        <v>3.676901870259555</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.56799158928372</v>
+        <v>32.20489576235068</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.066439411648612</v>
+        <v>10.63537962422531</v>
       </c>
       <c r="M21">
-        <v>15.79991586340869</v>
+        <v>16.89201961858063</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.36813084912836</v>
+        <v>20.09672377231938</v>
       </c>
       <c r="C22">
-        <v>23.71448795016081</v>
+        <v>12.76895565916211</v>
       </c>
       <c r="D22">
-        <v>5.182246600755723</v>
+        <v>7.349712012626306</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.0820185955487</v>
+        <v>42.02097683356486</v>
       </c>
       <c r="G22">
-        <v>2.017203589042951</v>
+        <v>3.673933360156718</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.40131728584772</v>
+        <v>32.3426873056203</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.147543784602252</v>
+        <v>10.63262905676278</v>
       </c>
       <c r="M22">
-        <v>16.42798774495522</v>
+        <v>16.95828033396159</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.75849452706957</v>
+        <v>19.92120520677062</v>
       </c>
       <c r="C23">
-        <v>23.22836300021148</v>
+        <v>12.5425370740029</v>
       </c>
       <c r="D23">
-        <v>5.187262607883856</v>
+        <v>7.353489055842077</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.17413424025254</v>
+        <v>41.80784358014353</v>
       </c>
       <c r="G23">
-        <v>2.022818995949469</v>
+        <v>3.675507760696362</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.95498844765124</v>
+        <v>32.26866641659741</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.103878857953851</v>
+        <v>10.63397973944317</v>
       </c>
       <c r="M23">
-        <v>16.09435738973973</v>
+        <v>16.92264051247647</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.38458257685117</v>
+        <v>19.25198344192666</v>
       </c>
       <c r="C24">
-        <v>21.3420084837489</v>
+        <v>11.64453918135899</v>
       </c>
       <c r="D24">
-        <v>5.215231240690518</v>
+        <v>7.369152745927399</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.73244995791951</v>
+        <v>41.01007795374817</v>
       </c>
       <c r="G24">
-        <v>2.044013529733773</v>
+        <v>3.681689826094985</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.29744613064499</v>
+        <v>31.99895270031762</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.946571895690609</v>
+        <v>10.64167397570172</v>
       </c>
       <c r="M24">
-        <v>14.79476529679431</v>
+        <v>16.79378484196156</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67210902194897</v>
+        <v>18.52517041535621</v>
       </c>
       <c r="C25">
-        <v>19.19829333052537</v>
+        <v>10.58890540389492</v>
       </c>
       <c r="D25">
-        <v>5.261323664666605</v>
+        <v>7.388917821900494</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.00226644450035</v>
+        <v>40.17357242651445</v>
       </c>
       <c r="G25">
-        <v>2.066957314522019</v>
+        <v>3.688831107098109</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.57186658252641</v>
+        <v>31.7313589555502</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.792771588585608</v>
+        <v>10.65548580079948</v>
       </c>
       <c r="M25">
-        <v>13.35458470335567</v>
+        <v>16.66834935743386</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.99061042797839</v>
+        <v>21.5330505622461</v>
       </c>
       <c r="C2">
-        <v>9.736186189957387</v>
+        <v>17.51549948661206</v>
       </c>
       <c r="D2">
-        <v>7.405907095948355</v>
+        <v>5.306273148776763</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.5819224932138</v>
+        <v>40.23637782261604</v>
       </c>
       <c r="G2">
-        <v>3.694501517802035</v>
+        <v>2.084124265654853</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.5548842137092</v>
+        <v>27.34979914582699</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.67039657122419</v>
+        <v>6.691995675540525</v>
       </c>
       <c r="M2">
-        <v>16.58805167610401</v>
+        <v>12.56057693439706</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.63132628203301</v>
+        <v>19.9901748464321</v>
       </c>
       <c r="C3">
-        <v>9.110936423818403</v>
+        <v>16.30550205837956</v>
       </c>
       <c r="D3">
-        <v>7.418924918032643</v>
+        <v>5.342509397138754</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.19784056479596</v>
+        <v>38.35176192452756</v>
       </c>
       <c r="G3">
-        <v>3.69860441482674</v>
+        <v>2.096013795268588</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.44829799129273</v>
+        <v>26.5505382193951</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.68345813809945</v>
+        <v>6.630951487466493</v>
       </c>
       <c r="M3">
-        <v>16.54133220765944</v>
+        <v>12.01662021724739</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.41311715636152</v>
+        <v>18.99553766516004</v>
       </c>
       <c r="C4">
-        <v>8.703597655823339</v>
+        <v>15.52699682885383</v>
       </c>
       <c r="D4">
-        <v>7.427654552514705</v>
+        <v>5.367299413288212</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.97089404488143</v>
+        <v>37.19133455667099</v>
       </c>
       <c r="G4">
-        <v>3.701252778963408</v>
+        <v>2.103464220394742</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.3893207206359</v>
+        <v>26.07389617611463</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.69293559898511</v>
+        <v>6.596886266363764</v>
       </c>
       <c r="M4">
-        <v>16.51649491236203</v>
+        <v>11.68054658102249</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.3249380912756</v>
+        <v>18.57814812983054</v>
       </c>
       <c r="C5">
-        <v>8.531703609648279</v>
+        <v>15.20064281848641</v>
       </c>
       <c r="D5">
-        <v>7.431396400340343</v>
+        <v>5.377999654942863</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.88072487710117</v>
+        <v>36.71800587922463</v>
       </c>
       <c r="G5">
-        <v>3.70236461862738</v>
+        <v>2.106541352723387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.36691948606756</v>
+        <v>25.88320346936005</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.69716417969981</v>
+        <v>6.583840520356571</v>
       </c>
       <c r="M5">
-        <v>16.50734840591493</v>
+        <v>11.54322336353118</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.31034503825207</v>
+        <v>18.5081075050927</v>
       </c>
       <c r="C6">
-        <v>8.502804202461817</v>
+        <v>15.1458974886895</v>
       </c>
       <c r="D6">
-        <v>7.432028848815533</v>
+        <v>5.379811432915356</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.86589431271032</v>
+        <v>36.63939592526251</v>
       </c>
       <c r="G6">
-        <v>3.702551212099488</v>
+        <v>2.10705487590651</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.36329852138363</v>
+        <v>25.85175309313916</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.69788846082021</v>
+        <v>6.581724118168869</v>
       </c>
       <c r="M6">
-        <v>16.50588870487701</v>
+        <v>11.52040356636072</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.41192474743401</v>
+        <v>18.98995767361238</v>
       </c>
       <c r="C7">
-        <v>8.701303330594126</v>
+        <v>15.52263258237073</v>
       </c>
       <c r="D7">
-        <v>7.427704270605743</v>
+        <v>5.36744134962082</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.96966852357533</v>
+        <v>37.18495231726165</v>
       </c>
       <c r="G7">
-        <v>3.701267641416941</v>
+        <v>2.103505549469671</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.38901199323647</v>
+        <v>26.07131008245574</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.69299114355957</v>
+        <v>6.596706971553028</v>
       </c>
       <c r="M7">
-        <v>16.51636760347276</v>
+        <v>11.67869587012464</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.866317004443</v>
+        <v>21.01077519238828</v>
       </c>
       <c r="C8">
-        <v>9.525458033553328</v>
+        <v>17.10556846581955</v>
       </c>
       <c r="D8">
-        <v>7.410242280678305</v>
+        <v>5.318214144756669</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.44769737074365</v>
+        <v>39.58743521108865</v>
       </c>
       <c r="G8">
-        <v>3.695889465695571</v>
+        <v>2.088194648370687</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.51679536652118</v>
+        <v>27.07127933453088</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.67459763161124</v>
+        <v>6.670224682631636</v>
       </c>
       <c r="M8">
-        <v>16.57114858571871</v>
+        <v>12.37353594882872</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.77024427204812</v>
+        <v>24.60715895277861</v>
       </c>
       <c r="C9">
-        <v>10.95617882675835</v>
+        <v>19.93597287700809</v>
       </c>
       <c r="D9">
-        <v>7.381879365815343</v>
+        <v>5.243924711902282</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.451820455884</v>
+        <v>44.26177607411623</v>
       </c>
       <c r="G9">
-        <v>3.686361877666633</v>
+        <v>2.059198536475587</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.81833505333871</v>
+        <v>29.14535120916418</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.65009671745467</v>
+        <v>6.84256900192346</v>
       </c>
       <c r="M9">
-        <v>16.70875455574787</v>
+        <v>13.82122725251521</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.43423138102909</v>
+        <v>27.04027249343586</v>
       </c>
       <c r="C10">
-        <v>11.89509230529709</v>
+        <v>21.86202308728645</v>
       </c>
       <c r="D10">
-        <v>7.364673973617681</v>
+        <v>5.20624325887907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.22489333074297</v>
+        <v>47.66756941290721</v>
       </c>
       <c r="G10">
-        <v>3.679974908001478</v>
+        <v>2.038265107490257</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.07034872067238</v>
+        <v>30.74210047365509</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.6391518825724</v>
+        <v>6.987957199371704</v>
       </c>
       <c r="M10">
-        <v>16.82771283879358</v>
+        <v>15.15379282393806</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.73467416903918</v>
+        <v>28.10546343388165</v>
       </c>
       <c r="C11">
-        <v>12.29805868762137</v>
+        <v>22.70842728091307</v>
       </c>
       <c r="D11">
-        <v>7.357646063046038</v>
+        <v>5.193661008530532</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>41.58305948832939</v>
+        <v>49.2122030854111</v>
       </c>
       <c r="G11">
-        <v>3.677200638775674</v>
+        <v>2.028755250119414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.19144875328072</v>
+        <v>31.48605721256957</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.63570474913792</v>
+        <v>7.058565174311174</v>
       </c>
       <c r="M11">
-        <v>16.88557351621091</v>
+        <v>15.73692787268683</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.84808819005716</v>
+        <v>28.50319376741264</v>
       </c>
       <c r="C12">
-        <v>12.44719552162466</v>
+        <v>23.02499943555788</v>
       </c>
       <c r="D12">
-        <v>7.355100530084173</v>
+        <v>5.189640500007102</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.71951736499603</v>
+        <v>49.79674862832441</v>
       </c>
       <c r="G12">
-        <v>3.676168824652074</v>
+        <v>2.02514942876175</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.23821791050844</v>
+        <v>31.77052013046016</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.63461953698478</v>
+        <v>7.085982499076833</v>
       </c>
       <c r="M12">
-        <v>16.90800974491433</v>
+        <v>15.95462755304765</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.8236802651133</v>
+        <v>28.41777984357873</v>
       </c>
       <c r="C13">
-        <v>12.41522977695222</v>
+        <v>22.95698941092681</v>
       </c>
       <c r="D13">
-        <v>7.355643592205648</v>
+        <v>5.190471740035077</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>41.69009357608308</v>
+        <v>49.67086643757203</v>
       </c>
       <c r="G13">
-        <v>3.676390212730437</v>
+        <v>2.025926327192261</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.22810510466061</v>
+        <v>31.70912978255758</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.63484346842182</v>
+        <v>7.080046818647583</v>
       </c>
       <c r="M13">
-        <v>16.90315453933651</v>
+        <v>15.90787746748198</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.74401266261793</v>
+        <v>28.13829566462097</v>
       </c>
       <c r="C14">
-        <v>12.31039747592347</v>
+        <v>22.7345487733982</v>
       </c>
       <c r="D14">
-        <v>7.357434314848328</v>
+        <v>5.193314770901274</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>41.59426996999751</v>
+        <v>49.2602992080482</v>
       </c>
       <c r="G14">
-        <v>3.677115375911724</v>
+        <v>2.028458730719825</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.19527832382004</v>
+        <v>31.50940369708669</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.6356110569735</v>
+        <v>7.060806964025819</v>
       </c>
       <c r="M14">
-        <v>16.8874089009988</v>
+        <v>15.75489950054806</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.69516382845474</v>
+        <v>27.96638112116104</v>
       </c>
       <c r="C15">
-        <v>12.24573481369464</v>
+        <v>22.59779484486574</v>
       </c>
       <c r="D15">
-        <v>7.358546289536744</v>
+        <v>5.19515596964257</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.53567994703744</v>
+        <v>49.0087778442652</v>
       </c>
       <c r="G15">
-        <v>3.677561996301446</v>
+        <v>2.030009087176701</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.17528909279972</v>
+        <v>31.38743045562645</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.63610989171203</v>
+        <v>7.049111684914906</v>
       </c>
       <c r="M15">
-        <v>16.87783229710905</v>
+        <v>15.66079584203875</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.41455345794681</v>
+        <v>26.9698509430751</v>
       </c>
       <c r="C16">
-        <v>11.86827280666061</v>
+        <v>21.80613739567205</v>
       </c>
       <c r="D16">
-        <v>7.365149417216246</v>
+        <v>5.207164551106633</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.20160797599189</v>
+        <v>47.56655181972771</v>
       </c>
       <c r="G16">
-        <v>3.680158842370889</v>
+        <v>2.038886323743572</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.06256304521436</v>
+        <v>30.69385170299977</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.63940797430399</v>
+        <v>6.983435786098753</v>
       </c>
       <c r="M16">
-        <v>16.82400579179253</v>
+        <v>15.11523570832323</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.2419044343693</v>
+        <v>26.34808290677703</v>
       </c>
       <c r="C17">
-        <v>11.63053710155244</v>
+        <v>21.31308301119368</v>
       </c>
       <c r="D17">
-        <v>7.369405482496541</v>
+        <v>5.215758098355548</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.9982536982896</v>
+        <v>46.68075835906176</v>
       </c>
       <c r="G17">
-        <v>3.681785437031948</v>
+        <v>2.044331179802658</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.99505140129386</v>
+        <v>30.2729983002824</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.64182348694252</v>
+        <v>6.944315324130995</v>
       </c>
       <c r="M17">
-        <v>16.79193540679019</v>
+        <v>14.77477798363649</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.14245701321621</v>
+        <v>25.98651474667042</v>
       </c>
       <c r="C18">
-        <v>11.49152374791765</v>
+        <v>21.02666667591188</v>
       </c>
       <c r="D18">
-        <v>7.371928601589181</v>
+        <v>5.221123996383925</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.88190710299179</v>
+        <v>46.17080585193249</v>
       </c>
       <c r="G18">
-        <v>3.682733367395256</v>
+        <v>2.047464567101221</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.9568294763464</v>
+        <v>30.03257330260691</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.64335700993533</v>
+        <v>6.922232557696615</v>
       </c>
       <c r="M18">
-        <v>16.77384279059712</v>
+        <v>14.57677262107914</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.1087649947202</v>
+        <v>25.86340663827696</v>
       </c>
       <c r="C19">
-        <v>11.4440651980084</v>
+        <v>20.92919639240752</v>
       </c>
       <c r="D19">
-        <v>7.372795764787194</v>
+        <v>5.223010980772298</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.84262337502601</v>
+        <v>45.99805781811145</v>
       </c>
       <c r="G19">
-        <v>3.683056446297649</v>
+        <v>2.048525944674503</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.94399328610236</v>
+        <v>29.95144561561167</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.64390100087938</v>
+        <v>6.914826512112734</v>
       </c>
       <c r="M19">
-        <v>16.76777802499736</v>
+        <v>14.5093509253943</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.2602990828007</v>
+        <v>26.41467691385959</v>
       </c>
       <c r="C20">
-        <v>11.65607972389272</v>
+        <v>21.3658595222969</v>
       </c>
       <c r="D20">
-        <v>7.368944633556533</v>
+        <v>5.214798909973434</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.0198379685718</v>
+        <v>46.77509930462653</v>
       </c>
       <c r="G20">
-        <v>3.681611005342314</v>
+        <v>2.04375143890332</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.00217522400011</v>
+        <v>30.31762793783662</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.64155142968137</v>
+        <v>6.948436222139945</v>
       </c>
       <c r="M20">
-        <v>16.79531286797156</v>
+        <v>14.81124489918911</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.76742362987817</v>
+        <v>28.22053679034596</v>
       </c>
       <c r="C21">
-        <v>12.34128298482096</v>
+        <v>22.79998905252782</v>
       </c>
       <c r="D21">
-        <v>7.356905186639271</v>
+        <v>5.192458736678538</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>41.62239405521003</v>
+        <v>49.38089972296137</v>
       </c>
       <c r="G21">
-        <v>3.676901870259555</v>
+        <v>2.027715084982403</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.20489576235068</v>
+        <v>31.56799158928387</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.63537962422531</v>
+        <v>7.066439411648606</v>
       </c>
       <c r="M21">
-        <v>16.89201961858063</v>
+        <v>15.79991586340869</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.09672377231938</v>
+        <v>29.36813084912848</v>
       </c>
       <c r="C22">
-        <v>12.76895565916211</v>
+        <v>23.71448795016068</v>
       </c>
       <c r="D22">
-        <v>7.349712012626306</v>
+        <v>5.182246600755691</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.02097683356486</v>
+        <v>51.0820185955487</v>
       </c>
       <c r="G22">
-        <v>3.673933360156718</v>
+        <v>2.017203589042949</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.3426873056203</v>
+        <v>32.40131728584766</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.63262905676278</v>
+        <v>7.147543784602309</v>
       </c>
       <c r="M22">
-        <v>16.95828033396159</v>
+        <v>16.42798774495526</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.92120520677062</v>
+        <v>28.75849452706944</v>
       </c>
       <c r="C23">
-        <v>12.5425370740029</v>
+        <v>23.22836300021168</v>
       </c>
       <c r="D23">
-        <v>7.353489055842077</v>
+        <v>5.18726260788389</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.80784358014353</v>
+        <v>50.17413424025239</v>
       </c>
       <c r="G23">
-        <v>3.675507760696362</v>
+        <v>2.022818995949343</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.26866641659741</v>
+        <v>31.95498844765122</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.63397973944317</v>
+        <v>7.103878857953831</v>
       </c>
       <c r="M23">
-        <v>16.92264051247647</v>
+        <v>16.09435738973967</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.25198344192666</v>
+        <v>26.38458257685117</v>
       </c>
       <c r="C24">
-        <v>11.64453918135899</v>
+        <v>21.34200848374898</v>
       </c>
       <c r="D24">
-        <v>7.369152745927399</v>
+        <v>5.215231240690608</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.01007795374817</v>
+        <v>46.73244995791961</v>
       </c>
       <c r="G24">
-        <v>3.681689826094985</v>
+        <v>2.044013529733633</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.99895270031762</v>
+        <v>30.29744613064508</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.64167397570172</v>
+        <v>6.946571895690595</v>
       </c>
       <c r="M24">
-        <v>16.79378484196156</v>
+        <v>14.79476529679433</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.52517041535621</v>
+        <v>23.67210902194896</v>
       </c>
       <c r="C25">
-        <v>10.58890540389492</v>
+        <v>19.19829333052544</v>
       </c>
       <c r="D25">
-        <v>7.388917821900494</v>
+        <v>5.26132366466658</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.17357242651445</v>
+        <v>43.00226644450024</v>
       </c>
       <c r="G25">
-        <v>3.688831107098109</v>
+        <v>2.066957314522147</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.7313589555502</v>
+        <v>28.57186658252643</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.65548580079948</v>
+        <v>6.792771588585598</v>
       </c>
       <c r="M25">
-        <v>16.66834935743386</v>
+        <v>13.35458470335568</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.5330505622461</v>
+        <v>11.82965656699371</v>
       </c>
       <c r="C2">
-        <v>17.51549948661206</v>
+        <v>7.915410971128079</v>
       </c>
       <c r="D2">
-        <v>5.306273148776763</v>
+        <v>6.526481175458361</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.23637782261604</v>
+        <v>29.31782509159587</v>
       </c>
       <c r="G2">
-        <v>2.084124265654853</v>
+        <v>35.80739030050182</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.002468697802637</v>
       </c>
       <c r="I2">
-        <v>27.34979914582699</v>
+        <v>3.615498946210314</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.17071607940537</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.98442755242533</v>
       </c>
       <c r="L2">
-        <v>6.691995675540525</v>
+        <v>7.175617163303875</v>
       </c>
       <c r="M2">
-        <v>12.56057693439706</v>
+        <v>11.05521383837021</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.18163579477617</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.9901748464321</v>
+        <v>11.08445244738911</v>
       </c>
       <c r="C3">
-        <v>16.30550205837956</v>
+        <v>7.396354911135994</v>
       </c>
       <c r="D3">
-        <v>5.342509397138754</v>
+        <v>6.18843509655674</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.35176192452756</v>
+        <v>28.67072139383086</v>
       </c>
       <c r="G3">
-        <v>2.096013795268588</v>
+        <v>35.00521959189098</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.237482533193641</v>
       </c>
       <c r="I3">
-        <v>26.5505382193951</v>
+        <v>3.795203418706364</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.09927954769095</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.87227351634854</v>
       </c>
       <c r="L3">
-        <v>6.630951487466493</v>
+        <v>6.967765931315439</v>
       </c>
       <c r="M3">
-        <v>12.01662021724739</v>
+        <v>10.4099299748814</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.58135848985644</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.99553766516004</v>
+        <v>10.59924311100875</v>
       </c>
       <c r="C4">
-        <v>15.52699682885383</v>
+        <v>7.063892629550954</v>
       </c>
       <c r="D4">
-        <v>5.367299413288212</v>
+        <v>5.973128135703426</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.19133455667099</v>
+        <v>28.2699164840394</v>
       </c>
       <c r="G4">
-        <v>2.103464220394742</v>
+        <v>34.50884207146427</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.387017874314577</v>
       </c>
       <c r="I4">
-        <v>26.07389617611463</v>
+        <v>3.910024834205894</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.05703578415945</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.8043435986439</v>
       </c>
       <c r="L4">
-        <v>6.596886266363764</v>
+        <v>6.835909725226623</v>
       </c>
       <c r="M4">
-        <v>11.68054658102249</v>
+        <v>9.992969560588271</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.19835819097671</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57814812983054</v>
+        <v>10.39206544115423</v>
       </c>
       <c r="C5">
-        <v>15.20064281848641</v>
+        <v>6.934510500241868</v>
       </c>
       <c r="D5">
-        <v>5.377999654942863</v>
+        <v>5.887409427214177</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.71800587922463</v>
+        <v>28.09113792371234</v>
       </c>
       <c r="G5">
-        <v>2.106541352723387</v>
+        <v>34.279842351875</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.449567131269087</v>
       </c>
       <c r="I5">
-        <v>25.88320346936005</v>
+        <v>3.960534333315423</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.03540696133546</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.76606640299572</v>
       </c>
       <c r="L5">
-        <v>6.583840520356571</v>
+        <v>6.780566252499853</v>
       </c>
       <c r="M5">
-        <v>11.54322336353118</v>
+        <v>9.819270110820078</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.04077929336895</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.5081075050927</v>
+        <v>10.35418801654778</v>
       </c>
       <c r="C6">
-        <v>15.1458974886895</v>
+        <v>6.924518861555947</v>
       </c>
       <c r="D6">
-        <v>5.379811432915356</v>
+        <v>5.877839054499275</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.63939592526251</v>
+        <v>28.04339194505765</v>
       </c>
       <c r="G6">
-        <v>2.10705487590651</v>
+        <v>34.21003858553205</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.460371107955425</v>
       </c>
       <c r="I6">
-        <v>25.85175309313916</v>
+        <v>3.972283230752319</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.02595020587772</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.74649126752043</v>
       </c>
       <c r="L6">
-        <v>6.581724118168869</v>
+        <v>6.770611268695339</v>
       </c>
       <c r="M6">
-        <v>11.52040356636072</v>
+        <v>9.791819989189992</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.01683484550976</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.98995767361238</v>
+        <v>10.58832001068104</v>
       </c>
       <c r="C7">
-        <v>15.52263258237073</v>
+        <v>7.093334116723357</v>
       </c>
       <c r="D7">
-        <v>5.36744134962082</v>
+        <v>5.984768733844346</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.18495231726165</v>
+        <v>28.21869881167786</v>
       </c>
       <c r="G7">
-        <v>2.103505549469671</v>
+        <v>34.419772491125</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.388761493685175</v>
       </c>
       <c r="I7">
-        <v>26.07131008245574</v>
+        <v>3.919427144052249</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.04072008777847</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.76779900665779</v>
       </c>
       <c r="L7">
-        <v>6.596706971553028</v>
+        <v>6.833273431736711</v>
       </c>
       <c r="M7">
-        <v>11.67869587012464</v>
+        <v>9.995212565871777</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.20275132154648</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01077519238828</v>
+        <v>11.56844921058776</v>
       </c>
       <c r="C8">
-        <v>17.10556846581955</v>
+        <v>7.777283721890431</v>
       </c>
       <c r="D8">
-        <v>5.318214144756669</v>
+        <v>6.427413291687187</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.58743521108865</v>
+        <v>29.03290515805306</v>
       </c>
       <c r="G8">
-        <v>2.088194648370687</v>
+        <v>35.42135665044348</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.083566803576925</v>
       </c>
       <c r="I8">
-        <v>27.07127933453088</v>
+        <v>3.687667834175445</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.12485950123362</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.89852017801529</v>
       </c>
       <c r="L8">
-        <v>6.670224682631636</v>
+        <v>7.102461366944763</v>
       </c>
       <c r="M8">
-        <v>12.37353594882872</v>
+        <v>10.8427077382829</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.98579529698214</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60715895277861</v>
+        <v>13.28446248357923</v>
       </c>
       <c r="C9">
-        <v>19.93597287700809</v>
+        <v>8.960393879760058</v>
       </c>
       <c r="D9">
-        <v>5.243924711902282</v>
+        <v>7.210872656295426</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.26177607411623</v>
+        <v>30.67888456213137</v>
       </c>
       <c r="G9">
-        <v>2.059198536475587</v>
+        <v>37.49439212163907</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.524176870800612</v>
       </c>
       <c r="I9">
-        <v>29.14535120916418</v>
+        <v>3.253781371756356</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.33097727645615</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.22564550780184</v>
       </c>
       <c r="L9">
-        <v>6.84256900192346</v>
+        <v>7.598767393587201</v>
       </c>
       <c r="M9">
-        <v>13.82122725251521</v>
+        <v>12.33137955501053</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.39129588310515</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.04027249343586</v>
+        <v>14.43005658266403</v>
       </c>
       <c r="C10">
-        <v>21.86202308728645</v>
+        <v>9.756243259114472</v>
       </c>
       <c r="D10">
-        <v>5.20624325887907</v>
+        <v>7.657652879744793</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.66756941290721</v>
+        <v>31.56791570877675</v>
       </c>
       <c r="G10">
-        <v>2.038265107490257</v>
+        <v>38.60124325615784</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.172257706625869</v>
       </c>
       <c r="I10">
-        <v>30.74210047365509</v>
+        <v>2.966717812553344</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.41556466655722</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.32794728367845</v>
       </c>
       <c r="L10">
-        <v>6.987957199371704</v>
+        <v>7.818482253354116</v>
       </c>
       <c r="M10">
-        <v>15.15379282393806</v>
+        <v>13.33078249835669</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.2195100376482</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.10546343388165</v>
+        <v>15.09204697803139</v>
       </c>
       <c r="C11">
-        <v>22.70842728091307</v>
+        <v>9.968236571385718</v>
       </c>
       <c r="D11">
-        <v>5.193661008530532</v>
+        <v>7.075759323863909</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.2122030854111</v>
+        <v>29.58960237931592</v>
       </c>
       <c r="G11">
-        <v>2.028755250119414</v>
+        <v>36.02351208710154</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.062767830483867</v>
       </c>
       <c r="I11">
-        <v>31.48605721256957</v>
+        <v>2.903834757973499</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.85411079916805</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.25332753999413</v>
       </c>
       <c r="L11">
-        <v>7.058565174311174</v>
+        <v>6.953976563103908</v>
       </c>
       <c r="M11">
-        <v>15.73692787268683</v>
+        <v>13.81964205949085</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.48028669036503</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.50319376741264</v>
+        <v>15.43186453234741</v>
       </c>
       <c r="C12">
-        <v>23.02499943555788</v>
+        <v>9.948429847704068</v>
       </c>
       <c r="D12">
-        <v>5.189640500007102</v>
+        <v>6.475855775089102</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.79674862832441</v>
+        <v>27.79661336941367</v>
       </c>
       <c r="G12">
-        <v>2.02514942876175</v>
+        <v>33.71995055641325</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.373244885008976</v>
       </c>
       <c r="I12">
-        <v>31.77052013046016</v>
+        <v>2.889505570118335</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.38923037497694</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.3947868505443</v>
       </c>
       <c r="L12">
-        <v>7.085982499076833</v>
+        <v>6.331344323633557</v>
       </c>
       <c r="M12">
-        <v>15.95462755304765</v>
+        <v>14.02601341428393</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.66734277075804</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.41777984357873</v>
+        <v>15.54568288214874</v>
       </c>
       <c r="C13">
-        <v>22.95698941092681</v>
+        <v>9.78437632171997</v>
       </c>
       <c r="D13">
-        <v>5.190471740035077</v>
+        <v>5.827246254980234</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.67086643757203</v>
+        <v>25.95292166256605</v>
       </c>
       <c r="G13">
-        <v>2.025926327192261</v>
+        <v>31.3400507087785</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.764110040614105</v>
       </c>
       <c r="I13">
-        <v>31.70912978255758</v>
+        <v>2.926423492813406</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.94676377896932</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.59972283934853</v>
       </c>
       <c r="L13">
-        <v>7.080046818647583</v>
+        <v>5.892764659799648</v>
       </c>
       <c r="M13">
-        <v>15.90787746748198</v>
+        <v>14.03920572579362</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.73605430565213</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.13829566462097</v>
+        <v>15.52329021576239</v>
       </c>
       <c r="C14">
-        <v>22.7345487733982</v>
+        <v>9.609358713891252</v>
       </c>
       <c r="D14">
-        <v>5.193314770901274</v>
+        <v>5.349840998099007</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.2602992080482</v>
+        <v>24.63118719664712</v>
       </c>
       <c r="G14">
-        <v>2.028458730719825</v>
+        <v>29.61847995300516</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.760138838677079</v>
       </c>
       <c r="I14">
-        <v>31.50940369708669</v>
+        <v>2.978085988677177</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.64679931390043</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.07314492560754</v>
       </c>
       <c r="L14">
-        <v>7.060806964025819</v>
+        <v>5.719044313322466</v>
       </c>
       <c r="M14">
-        <v>15.75489950054806</v>
+        <v>13.96270558393149</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.02264903689591</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.96638112116104</v>
+        <v>15.46653884770547</v>
       </c>
       <c r="C15">
-        <v>22.59779484486574</v>
+        <v>9.544394662197318</v>
       </c>
       <c r="D15">
-        <v>5.19515596964257</v>
+        <v>5.225470530328136</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.0087778442652</v>
+        <v>24.28468102014195</v>
       </c>
       <c r="G15">
-        <v>2.030009087176701</v>
+        <v>29.15783639131581</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.994452541424762</v>
       </c>
       <c r="I15">
-        <v>31.38743045562645</v>
+        <v>3.00650545232474</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.57375052679151</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.94702840232219</v>
       </c>
       <c r="L15">
-        <v>7.049111684914906</v>
+        <v>5.693667780202407</v>
       </c>
       <c r="M15">
-        <v>15.66079584203875</v>
+        <v>13.90361149201049</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.82465886772294</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.9698509430751</v>
+        <v>14.98313515562606</v>
       </c>
       <c r="C16">
-        <v>21.80613739567205</v>
+        <v>9.254224547140597</v>
       </c>
       <c r="D16">
-        <v>5.207164551106633</v>
+        <v>5.134243908136423</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.56655181972771</v>
+        <v>24.20884913800626</v>
       </c>
       <c r="G16">
-        <v>2.038886323743572</v>
+        <v>29.05135831063051</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.81925720753454</v>
       </c>
       <c r="I16">
-        <v>30.69385170299977</v>
+        <v>3.126226912638308</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.61701858939469</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.04557084315766</v>
       </c>
       <c r="L16">
-        <v>6.983435786098753</v>
+        <v>5.668755391147473</v>
       </c>
       <c r="M16">
-        <v>15.11523570832323</v>
+        <v>13.49624025474866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.61455798818355</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.34808290677703</v>
+        <v>14.61533742533278</v>
       </c>
       <c r="C17">
-        <v>21.31308301119368</v>
+        <v>9.126125614264549</v>
       </c>
       <c r="D17">
-        <v>5.215758098355548</v>
+        <v>5.326938429204593</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.68075835906176</v>
+        <v>24.85652239788693</v>
       </c>
       <c r="G17">
-        <v>2.044331179802658</v>
+        <v>29.89293790681998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.13038732420757</v>
       </c>
       <c r="I17">
-        <v>30.2729983002824</v>
+        <v>3.191705141951904</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.80774514859114</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.39431778867258</v>
       </c>
       <c r="L17">
-        <v>6.944315324130995</v>
+        <v>5.718218949668892</v>
       </c>
       <c r="M17">
-        <v>14.77477798363649</v>
+        <v>13.2195269041317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.84612874474845</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.98651474667042</v>
+        <v>14.31873303205731</v>
       </c>
       <c r="C18">
-        <v>21.02666667591188</v>
+        <v>9.106378445517171</v>
       </c>
       <c r="D18">
-        <v>5.221123996383925</v>
+        <v>5.78595316839559</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.17080585193249</v>
+        <v>26.25119353508488</v>
       </c>
       <c r="G18">
-        <v>2.047464567101221</v>
+        <v>31.72047277030339</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.958682967219256</v>
       </c>
       <c r="I18">
-        <v>30.03257330260691</v>
+        <v>3.205613630163922</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.16410423441025</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.04123701245618</v>
       </c>
       <c r="L18">
-        <v>6.922232557696615</v>
+        <v>5.968427777785509</v>
       </c>
       <c r="M18">
-        <v>14.57677262107914</v>
+        <v>13.02703277481506</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.48315169880311</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.86340663827696</v>
+        <v>14.09560836933335</v>
       </c>
       <c r="C19">
-        <v>20.92919639240752</v>
+        <v>9.222683492990285</v>
       </c>
       <c r="D19">
-        <v>5.223010980772298</v>
+        <v>6.44587735634619</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.99805781811145</v>
+        <v>28.09032254869606</v>
       </c>
       <c r="G19">
-        <v>2.048525944674503</v>
+        <v>34.08858333197681</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.610226794283458</v>
       </c>
       <c r="I19">
-        <v>29.95144561561167</v>
+        <v>3.192655083636489</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.61279711426642</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.85535594939995</v>
       </c>
       <c r="L19">
-        <v>6.914826512112734</v>
+        <v>6.522518920727781</v>
       </c>
       <c r="M19">
-        <v>14.5093509253943</v>
+        <v>12.92842035789349</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.40241764421374</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.41467691385959</v>
+        <v>14.11944673788136</v>
       </c>
       <c r="C20">
-        <v>21.3658595222969</v>
+        <v>9.624969085701441</v>
       </c>
       <c r="D20">
-        <v>5.214798909973434</v>
+        <v>7.570190166988082</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.77509930462653</v>
+        <v>31.18862274558665</v>
       </c>
       <c r="G20">
-        <v>2.04375143890332</v>
+        <v>38.05839205989732</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.265437881826863</v>
       </c>
       <c r="I20">
-        <v>30.31762793783662</v>
+        <v>3.071095219606448</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.34270887754519</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.18897486134156</v>
       </c>
       <c r="L20">
-        <v>6.948436222139945</v>
+        <v>7.751295737321537</v>
       </c>
       <c r="M20">
-        <v>14.81124489918911</v>
+        <v>13.08700068983291</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.01693563982058</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.22053679034596</v>
+        <v>14.92992351614248</v>
       </c>
       <c r="C21">
-        <v>22.79998905252782</v>
+        <v>10.22668395731742</v>
       </c>
       <c r="D21">
-        <v>5.192458736678538</v>
+        <v>8.035750150769452</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.38089972296137</v>
+        <v>32.31011555601281</v>
       </c>
       <c r="G21">
-        <v>2.027715084982403</v>
+        <v>39.48730254691051</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.948814896750696</v>
       </c>
       <c r="I21">
-        <v>31.56799158928387</v>
+        <v>2.843261066304307</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.52561439922344</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.48780323344888</v>
       </c>
       <c r="L21">
-        <v>7.066439411648606</v>
+        <v>8.10290721346105</v>
       </c>
       <c r="M21">
-        <v>15.79991586340869</v>
+        <v>13.80973867767254</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.82334738703092</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.36813084912848</v>
+        <v>15.45412097292215</v>
       </c>
       <c r="C22">
-        <v>23.71448795016068</v>
+        <v>10.57019757569937</v>
       </c>
       <c r="D22">
-        <v>5.182246600755691</v>
+        <v>8.271999104138184</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.0820185955487</v>
+        <v>32.95083180269283</v>
       </c>
       <c r="G22">
-        <v>2.017203589042949</v>
+        <v>40.32946152134649</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.761689405566452</v>
       </c>
       <c r="I22">
-        <v>32.40131728584766</v>
+        <v>2.688023490020281</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.63135322295709</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.6630733880307</v>
       </c>
       <c r="L22">
-        <v>7.147543784602309</v>
+        <v>8.267700831155711</v>
       </c>
       <c r="M22">
-        <v>16.42798774495526</v>
+        <v>14.26226283444473</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.26248672026415</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.75849452706944</v>
+        <v>15.18356836980137</v>
       </c>
       <c r="C23">
-        <v>23.22836300021168</v>
+        <v>10.36155611856813</v>
       </c>
       <c r="D23">
-        <v>5.18726260788389</v>
+        <v>8.135202265113142</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.17413424025239</v>
+        <v>32.65901917648372</v>
       </c>
       <c r="G23">
-        <v>2.022818995949343</v>
+        <v>39.96774518545446</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.860343104191652</v>
       </c>
       <c r="I23">
-        <v>31.95498844765122</v>
+        <v>2.758396352559318</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.59230680103908</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.60906194958733</v>
       </c>
       <c r="L23">
-        <v>7.103878857953831</v>
+        <v>8.181956664665954</v>
       </c>
       <c r="M23">
-        <v>16.09435738973967</v>
+        <v>14.0183506881904</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.023698369349</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.38458257685117</v>
+        <v>14.10061412286814</v>
       </c>
       <c r="C24">
-        <v>21.34200848374898</v>
+        <v>9.588066128906354</v>
       </c>
       <c r="D24">
-        <v>5.215231240690608</v>
+        <v>7.618558395850545</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.73244995791961</v>
+        <v>31.46348348078947</v>
       </c>
       <c r="G24">
-        <v>2.044013529733633</v>
+        <v>38.44801757719178</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.242957985153827</v>
       </c>
       <c r="I24">
-        <v>30.29744613064508</v>
+        <v>3.051863659803119</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.42068569577792</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.34549423854369</v>
       </c>
       <c r="L24">
-        <v>6.946571895690595</v>
+        <v>7.845738472822671</v>
       </c>
       <c r="M24">
-        <v>14.79476529679433</v>
+        <v>13.06365818810518</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.09772341175698</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67210902194896</v>
+        <v>12.83123577654141</v>
       </c>
       <c r="C25">
-        <v>19.19829333052544</v>
+        <v>8.698583705146619</v>
       </c>
       <c r="D25">
-        <v>5.26132366466658</v>
+        <v>7.025872715376151</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.00226644450024</v>
+        <v>30.15648298470032</v>
       </c>
       <c r="G25">
-        <v>2.066957314522147</v>
+        <v>36.79485559948553</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.672756924466279</v>
       </c>
       <c r="I25">
-        <v>28.57186658252643</v>
+        <v>3.383568676068486</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.24589506273116</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.07342558965589</v>
       </c>
       <c r="L25">
-        <v>6.792771588585598</v>
+        <v>7.465317120865514</v>
       </c>
       <c r="M25">
-        <v>13.35458470335568</v>
+        <v>11.95360986802727</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>13.03456109261651</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.82965656699371</v>
+        <v>11.78199383113764</v>
       </c>
       <c r="C2">
-        <v>7.915410971128079</v>
+        <v>8.531734229386604</v>
       </c>
       <c r="D2">
-        <v>6.526481175458361</v>
+        <v>6.952305595883761</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.31782509159587</v>
+        <v>27.7237020399872</v>
       </c>
       <c r="G2">
-        <v>35.80739030050182</v>
+        <v>32.76451784134849</v>
       </c>
       <c r="H2">
-        <v>3.002468697802637</v>
+        <v>2.903594524510914</v>
       </c>
       <c r="I2">
-        <v>3.615498946210314</v>
+        <v>3.400235250267909</v>
       </c>
       <c r="J2">
-        <v>12.17071607940537</v>
+        <v>11.69094784406528</v>
       </c>
       <c r="K2">
-        <v>18.98442755242533</v>
+        <v>17.53429479975168</v>
       </c>
       <c r="L2">
-        <v>7.175617163303875</v>
+        <v>14.07290522403688</v>
       </c>
       <c r="M2">
-        <v>11.05521383837021</v>
+        <v>11.90232610043111</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.204561824655214</v>
       </c>
       <c r="O2">
-        <v>12.18163579477617</v>
+        <v>11.22689967916792</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.38985708386871</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08445244738911</v>
+        <v>11.07775309933868</v>
       </c>
       <c r="C3">
-        <v>7.396354911135994</v>
+        <v>7.908298370363988</v>
       </c>
       <c r="D3">
-        <v>6.18843509655674</v>
+        <v>6.584330474873498</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.67072139383086</v>
+        <v>27.23187992349822</v>
       </c>
       <c r="G3">
-        <v>35.00521959189098</v>
+        <v>32.28931018518929</v>
       </c>
       <c r="H3">
-        <v>3.237482533193641</v>
+        <v>3.125642191734145</v>
       </c>
       <c r="I3">
-        <v>3.795203418706364</v>
+        <v>3.55602797608956</v>
       </c>
       <c r="J3">
-        <v>12.09927954769095</v>
+        <v>11.62637672395163</v>
       </c>
       <c r="K3">
-        <v>18.87227351634854</v>
+        <v>17.53167811597582</v>
       </c>
       <c r="L3">
-        <v>6.967765931315439</v>
+        <v>14.16249909745138</v>
       </c>
       <c r="M3">
-        <v>10.4099299748814</v>
+        <v>11.83263562765647</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.011630569369462</v>
       </c>
       <c r="O3">
-        <v>11.58135848985644</v>
+        <v>10.57213403151081</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.77031830700584</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.59924311100875</v>
+        <v>10.61980717460032</v>
       </c>
       <c r="C4">
-        <v>7.063892629550954</v>
+        <v>7.507342563036608</v>
       </c>
       <c r="D4">
-        <v>5.973128135703426</v>
+        <v>6.350166613406367</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.2699164840394</v>
+        <v>26.92755205774978</v>
       </c>
       <c r="G4">
-        <v>34.50884207146427</v>
+        <v>32.00021186505629</v>
       </c>
       <c r="H4">
-        <v>3.387017874314577</v>
+        <v>3.267013429925058</v>
       </c>
       <c r="I4">
-        <v>3.910024834205894</v>
+        <v>3.655909093319626</v>
       </c>
       <c r="J4">
-        <v>12.05703578415945</v>
+        <v>11.58622710447921</v>
       </c>
       <c r="K4">
-        <v>18.8043435986439</v>
+        <v>17.53038967088486</v>
       </c>
       <c r="L4">
-        <v>6.835909725226623</v>
+        <v>14.2151995168945</v>
       </c>
       <c r="M4">
-        <v>9.992969560588271</v>
+        <v>11.80549734030393</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.889380368183586</v>
       </c>
       <c r="O4">
-        <v>11.19835819097671</v>
+        <v>10.14910258391785</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.37478854028278</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.39206544115423</v>
+        <v>10.42450662316354</v>
       </c>
       <c r="C5">
-        <v>6.934510500241868</v>
+        <v>7.348719066973594</v>
       </c>
       <c r="D5">
-        <v>5.887409427214177</v>
+        <v>6.256334509541114</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.09113792371234</v>
+        <v>26.7896862863929</v>
       </c>
       <c r="G5">
-        <v>34.279842351875</v>
+        <v>31.85981167044638</v>
       </c>
       <c r="H5">
-        <v>3.449567131269087</v>
+        <v>3.326153656706685</v>
       </c>
       <c r="I5">
-        <v>3.960534333315423</v>
+        <v>3.700682854909691</v>
       </c>
       <c r="J5">
-        <v>12.03540696133546</v>
+        <v>11.56535163107968</v>
       </c>
       <c r="K5">
-        <v>18.76606640299572</v>
+        <v>17.52052982313835</v>
       </c>
       <c r="L5">
-        <v>6.780566252499853</v>
+        <v>14.22771760268235</v>
       </c>
       <c r="M5">
-        <v>9.819270110820078</v>
+        <v>11.79257577119129</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.83811660014834</v>
       </c>
       <c r="O5">
-        <v>11.04077929336895</v>
+        <v>9.972780834295165</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.21177921850779</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.35418801654778</v>
+        <v>10.38889330776737</v>
       </c>
       <c r="C6">
-        <v>6.924518861555947</v>
+        <v>7.333539527288749</v>
       </c>
       <c r="D6">
-        <v>5.877839054499275</v>
+        <v>6.245006174399788</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.04339194505765</v>
+        <v>26.75044834217182</v>
       </c>
       <c r="G6">
-        <v>34.21003858553205</v>
+        <v>31.80808708655705</v>
       </c>
       <c r="H6">
-        <v>3.460371107955425</v>
+        <v>3.336353117364108</v>
       </c>
       <c r="I6">
-        <v>3.972283230752319</v>
+        <v>3.712031798964496</v>
       </c>
       <c r="J6">
-        <v>12.02595020587772</v>
+        <v>11.55651143509461</v>
       </c>
       <c r="K6">
-        <v>18.74649126752043</v>
+        <v>17.50741760602147</v>
       </c>
       <c r="L6">
-        <v>6.770611268695339</v>
+        <v>14.21954187193122</v>
       </c>
       <c r="M6">
-        <v>9.791819989189992</v>
+        <v>11.78355085922458</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.828912834095687</v>
       </c>
       <c r="O6">
-        <v>11.01683484550976</v>
+        <v>9.944771375170664</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.18673024228414</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.58832001068104</v>
+        <v>10.61094471987444</v>
       </c>
       <c r="C7">
-        <v>7.093334116723357</v>
+        <v>7.526396335803027</v>
       </c>
       <c r="D7">
-        <v>5.984768733844346</v>
+        <v>6.368209593217165</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.21869881167786</v>
+        <v>26.85535985849075</v>
       </c>
       <c r="G7">
-        <v>34.419772491125</v>
+        <v>31.97447395422585</v>
       </c>
       <c r="H7">
-        <v>3.388761493685175</v>
+        <v>3.269197406726962</v>
       </c>
       <c r="I7">
-        <v>3.919427144052249</v>
+        <v>3.667343134962553</v>
       </c>
       <c r="J7">
-        <v>12.04072008777847</v>
+        <v>11.52635831638896</v>
       </c>
       <c r="K7">
-        <v>18.76779900665779</v>
+        <v>17.48481063950782</v>
       </c>
       <c r="L7">
-        <v>6.833273431736711</v>
+        <v>14.17562026049669</v>
       </c>
       <c r="M7">
-        <v>9.995212565871777</v>
+        <v>11.77628128695222</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.88632938117609</v>
       </c>
       <c r="O7">
-        <v>11.20275132154648</v>
+        <v>10.14887187560007</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.37961692918293</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.56844921058776</v>
+        <v>11.53912047752678</v>
       </c>
       <c r="C8">
-        <v>7.777283721890431</v>
+        <v>8.329239029782867</v>
       </c>
       <c r="D8">
-        <v>6.427413291687187</v>
+        <v>6.865436265323539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.03290515805306</v>
+        <v>27.41378966413698</v>
       </c>
       <c r="G8">
-        <v>35.42135665044348</v>
+        <v>32.67608434748849</v>
       </c>
       <c r="H8">
-        <v>3.083566803576925</v>
+        <v>2.981930945403932</v>
       </c>
       <c r="I8">
-        <v>3.687667834175445</v>
+        <v>3.46807886125226</v>
       </c>
       <c r="J8">
-        <v>12.12485950123362</v>
+        <v>11.50356597504201</v>
       </c>
       <c r="K8">
-        <v>18.89852017801529</v>
+        <v>17.44648647116447</v>
       </c>
       <c r="L8">
-        <v>7.102461366944763</v>
+        <v>14.03253231706897</v>
       </c>
       <c r="M8">
-        <v>10.8427077382829</v>
+        <v>11.81472688485585</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.134691020692022</v>
       </c>
       <c r="O8">
-        <v>11.98579529698214</v>
+        <v>11.0042821054029</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.19004289793051</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.28446248357923</v>
+        <v>13.16347001075232</v>
       </c>
       <c r="C9">
-        <v>8.960393879760058</v>
+        <v>9.746243300684188</v>
       </c>
       <c r="D9">
-        <v>7.210872656295426</v>
+        <v>7.724907372730554</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.67888456213137</v>
+        <v>28.65871125349277</v>
       </c>
       <c r="G9">
-        <v>37.49439212163907</v>
+        <v>34.00830611495114</v>
       </c>
       <c r="H9">
-        <v>2.524176870800612</v>
+        <v>2.454270785329405</v>
       </c>
       <c r="I9">
-        <v>3.253781371756356</v>
+        <v>3.09131159627479</v>
       </c>
       <c r="J9">
-        <v>12.33097727645615</v>
+        <v>11.64199721427241</v>
       </c>
       <c r="K9">
-        <v>19.22564550780184</v>
+        <v>17.48087753264619</v>
       </c>
       <c r="L9">
-        <v>7.598767393587201</v>
+        <v>13.82300383266967</v>
       </c>
       <c r="M9">
-        <v>12.33137955501053</v>
+        <v>12.08503961090362</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.595791743544379</v>
       </c>
       <c r="O9">
-        <v>13.39129588310515</v>
+        <v>12.51424581951212</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.64036548080905</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.43005658266403</v>
+        <v>14.25973754481158</v>
       </c>
       <c r="C10">
-        <v>9.756243259114472</v>
+        <v>10.63790193350365</v>
       </c>
       <c r="D10">
-        <v>7.657652879744793</v>
+        <v>8.252022520214169</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.56791570877675</v>
+        <v>29.16360783820137</v>
       </c>
       <c r="G10">
-        <v>38.60124325615784</v>
+        <v>34.96424621460215</v>
       </c>
       <c r="H10">
-        <v>2.172257706625869</v>
+        <v>2.12705231000696</v>
       </c>
       <c r="I10">
-        <v>2.966717812553344</v>
+        <v>2.848267590444709</v>
       </c>
       <c r="J10">
-        <v>12.41556466655722</v>
+        <v>11.43848995791015</v>
       </c>
       <c r="K10">
-        <v>19.32794728367845</v>
+        <v>17.32155486925881</v>
       </c>
       <c r="L10">
-        <v>7.818482253354116</v>
+        <v>13.52212468719213</v>
       </c>
       <c r="M10">
-        <v>13.33078249835669</v>
+        <v>12.20510622890773</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.791131491809865</v>
       </c>
       <c r="O10">
-        <v>14.2195100376482</v>
+        <v>13.51566484380854</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.49849090770447</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.09204697803139</v>
+        <v>14.94230659036878</v>
       </c>
       <c r="C11">
-        <v>9.968236571385718</v>
+        <v>10.69536196974166</v>
       </c>
       <c r="D11">
-        <v>7.075759323863909</v>
+        <v>7.705705380968032</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.58960237931592</v>
+        <v>27.07203144466996</v>
       </c>
       <c r="G11">
-        <v>36.02351208710154</v>
+        <v>33.27060644481464</v>
       </c>
       <c r="H11">
-        <v>3.062767830483867</v>
+        <v>3.037139034148461</v>
       </c>
       <c r="I11">
-        <v>2.903834757973499</v>
+        <v>2.805044977909986</v>
       </c>
       <c r="J11">
-        <v>11.85411079916805</v>
+        <v>10.51475966331066</v>
       </c>
       <c r="K11">
-        <v>18.25332753999413</v>
+        <v>16.2723520573498</v>
       </c>
       <c r="L11">
-        <v>6.953976563103908</v>
+        <v>12.69965795894872</v>
       </c>
       <c r="M11">
-        <v>13.81964205949085</v>
+        <v>11.47178343277515</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.930036484799061</v>
       </c>
       <c r="O11">
-        <v>13.48028669036503</v>
+        <v>13.97158112971471</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.7504721624317</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.43186453234741</v>
+        <v>15.30562623506905</v>
       </c>
       <c r="C12">
-        <v>9.948429847704068</v>
+        <v>10.5500366007162</v>
       </c>
       <c r="D12">
-        <v>6.475855775089102</v>
+        <v>7.096188246477229</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.79661336941367</v>
+        <v>25.35097547272544</v>
       </c>
       <c r="G12">
-        <v>33.71995055641325</v>
+        <v>31.5398036631611</v>
       </c>
       <c r="H12">
-        <v>4.373244885008976</v>
+        <v>4.355747129302504</v>
       </c>
       <c r="I12">
-        <v>2.889505570118335</v>
+        <v>2.794080601469937</v>
       </c>
       <c r="J12">
-        <v>11.38923037497694</v>
+        <v>9.991006245021216</v>
       </c>
       <c r="K12">
-        <v>17.3947868505443</v>
+        <v>15.54082923387611</v>
       </c>
       <c r="L12">
-        <v>6.331344323633557</v>
+        <v>12.17255864833191</v>
       </c>
       <c r="M12">
-        <v>14.02601341428393</v>
+        <v>10.90440372448462</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.318173086143395</v>
       </c>
       <c r="O12">
-        <v>12.66734277075804</v>
+        <v>14.1551696833661</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.92159288572708</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.54568288214874</v>
+        <v>15.44483019800712</v>
       </c>
       <c r="C13">
-        <v>9.78437632171997</v>
+        <v>10.28691027389479</v>
       </c>
       <c r="D13">
-        <v>5.827246254980234</v>
+        <v>6.387175821035986</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.95292166256605</v>
+        <v>23.78455258344046</v>
       </c>
       <c r="G13">
-        <v>31.3400507087785</v>
+        <v>29.42090018118887</v>
       </c>
       <c r="H13">
-        <v>5.764110040614105</v>
+        <v>5.748365244454861</v>
       </c>
       <c r="I13">
-        <v>2.926423492813406</v>
+        <v>2.823844754631072</v>
       </c>
       <c r="J13">
-        <v>10.94676377896932</v>
+        <v>9.750431199621644</v>
       </c>
       <c r="K13">
-        <v>16.59972283934853</v>
+        <v>14.98523453622222</v>
       </c>
       <c r="L13">
-        <v>5.892764659799648</v>
+        <v>11.8033765312604</v>
       </c>
       <c r="M13">
-        <v>14.03920572579362</v>
+        <v>10.42345838181363</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.897721477095418</v>
       </c>
       <c r="O13">
-        <v>11.73605430565213</v>
+        <v>14.15502003694175</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.96466939381728</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.52329021576239</v>
+        <v>15.4414626065455</v>
       </c>
       <c r="C14">
-        <v>9.609358713891252</v>
+        <v>10.05178145400048</v>
       </c>
       <c r="D14">
-        <v>5.349840998099007</v>
+        <v>5.845362689547589</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.63118719664712</v>
+        <v>22.74380270873105</v>
       </c>
       <c r="G14">
-        <v>29.61847995300516</v>
+        <v>27.758270612024</v>
       </c>
       <c r="H14">
-        <v>6.760138838677079</v>
+        <v>6.744080368284348</v>
       </c>
       <c r="I14">
-        <v>2.978085988677177</v>
+        <v>2.866440270094755</v>
       </c>
       <c r="J14">
-        <v>10.64679931390043</v>
+        <v>9.682506337070452</v>
       </c>
       <c r="K14">
-        <v>16.07314492560754</v>
+        <v>14.6678626230275</v>
       </c>
       <c r="L14">
-        <v>5.719044313322466</v>
+        <v>11.6039050704459</v>
       </c>
       <c r="M14">
-        <v>13.96270558393149</v>
+        <v>10.12509349709798</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.73894240033884</v>
       </c>
       <c r="O14">
-        <v>11.02264903689591</v>
+        <v>14.07296028223383</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.22850690352827</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.46653884770547</v>
+        <v>15.39014119241494</v>
       </c>
       <c r="C15">
-        <v>9.544394662197318</v>
+        <v>9.97588400574668</v>
       </c>
       <c r="D15">
-        <v>5.225470530328136</v>
+        <v>5.696225052743728</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.28468102014195</v>
+        <v>22.50270315170897</v>
       </c>
       <c r="G15">
-        <v>29.15783639131581</v>
+        <v>27.26505991219002</v>
       </c>
       <c r="H15">
-        <v>6.994452541424762</v>
+        <v>6.977717204091665</v>
       </c>
       <c r="I15">
-        <v>3.00650545232474</v>
+        <v>2.891180186334774</v>
       </c>
       <c r="J15">
-        <v>10.57375052679151</v>
+        <v>9.704199667609982</v>
       </c>
       <c r="K15">
-        <v>15.94702840232219</v>
+        <v>14.61149857883141</v>
       </c>
       <c r="L15">
-        <v>5.693667780202407</v>
+        <v>11.57255060988101</v>
       </c>
       <c r="M15">
-        <v>13.90361149201049</v>
+        <v>10.06199577616889</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.718255275209505</v>
       </c>
       <c r="O15">
-        <v>10.82465886772294</v>
+        <v>14.01417904710453</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.02283774961234</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.98313515562606</v>
+        <v>14.91373148742249</v>
       </c>
       <c r="C16">
-        <v>9.254224547140597</v>
+        <v>9.718374559770373</v>
       </c>
       <c r="D16">
-        <v>5.134243908136423</v>
+        <v>5.532344545654023</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.20884913800626</v>
+        <v>22.72378015617264</v>
       </c>
       <c r="G16">
-        <v>29.05135831063051</v>
+        <v>26.77367115817504</v>
       </c>
       <c r="H16">
-        <v>6.81925720753454</v>
+        <v>6.796195467979198</v>
       </c>
       <c r="I16">
-        <v>3.126226912638308</v>
+        <v>2.990568007166801</v>
       </c>
       <c r="J16">
-        <v>10.61701858939469</v>
+        <v>10.0799685667671</v>
       </c>
       <c r="K16">
-        <v>16.04557084315766</v>
+        <v>14.85862484655678</v>
       </c>
       <c r="L16">
-        <v>5.668755391147473</v>
+        <v>11.77357723707141</v>
       </c>
       <c r="M16">
-        <v>13.49624025474866</v>
+        <v>10.19464291403381</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.704607460707896</v>
       </c>
       <c r="O16">
-        <v>10.61455798818355</v>
+        <v>13.62199386453886</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.79623931354178</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.61533742533278</v>
+        <v>14.54276450581165</v>
       </c>
       <c r="C17">
-        <v>9.126125614264549</v>
+        <v>9.63900644908637</v>
       </c>
       <c r="D17">
-        <v>5.326938429204593</v>
+        <v>5.710723819796698</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.85652239788693</v>
+        <v>23.4248581626752</v>
       </c>
       <c r="G17">
-        <v>29.89293790681998</v>
+        <v>27.34981271362743</v>
       </c>
       <c r="H17">
-        <v>6.13038732420757</v>
+        <v>6.101363558836849</v>
       </c>
       <c r="I17">
-        <v>3.191705141951904</v>
+        <v>3.045938805744571</v>
       </c>
       <c r="J17">
-        <v>10.80774514859114</v>
+        <v>10.38738725571342</v>
       </c>
       <c r="K17">
-        <v>16.39431778867258</v>
+        <v>15.20550932081843</v>
       </c>
       <c r="L17">
-        <v>5.718218949668892</v>
+        <v>12.03898824761655</v>
       </c>
       <c r="M17">
-        <v>13.2195269041317</v>
+        <v>10.43671680314364</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.755142693328835</v>
       </c>
       <c r="O17">
-        <v>10.84612874474845</v>
+        <v>13.35772135139661</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.02885963664708</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.31873303205731</v>
+        <v>14.23093767515417</v>
       </c>
       <c r="C18">
-        <v>9.106378445517171</v>
+        <v>9.703135093170037</v>
       </c>
       <c r="D18">
-        <v>5.78595316839559</v>
+        <v>6.191578864282357</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.25119353508488</v>
+        <v>24.71382697508047</v>
       </c>
       <c r="G18">
-        <v>31.72047277030339</v>
+        <v>28.85559987521717</v>
       </c>
       <c r="H18">
-        <v>4.958682967219256</v>
+        <v>4.922030190998466</v>
       </c>
       <c r="I18">
-        <v>3.205613630163922</v>
+        <v>3.055108616830037</v>
       </c>
       <c r="J18">
-        <v>11.16410423441025</v>
+        <v>10.74645901283531</v>
       </c>
       <c r="K18">
-        <v>17.04123701245618</v>
+        <v>15.73932159315105</v>
       </c>
       <c r="L18">
-        <v>5.968427777785509</v>
+        <v>12.43885088328044</v>
       </c>
       <c r="M18">
-        <v>13.02703277481506</v>
+        <v>10.84111054428992</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.996965533182072</v>
       </c>
       <c r="O18">
-        <v>11.48315169880311</v>
+        <v>13.18015072015275</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.68100420474529</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.09560836933335</v>
+        <v>13.98415602785138</v>
       </c>
       <c r="C19">
-        <v>9.222683492990285</v>
+        <v>9.92822774551516</v>
       </c>
       <c r="D19">
-        <v>6.44587735634619</v>
+        <v>6.894190631411893</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.09032254869606</v>
+        <v>26.35232468264516</v>
       </c>
       <c r="G19">
-        <v>34.08858333197681</v>
+        <v>30.84874934431064</v>
       </c>
       <c r="H19">
-        <v>3.610226794283458</v>
+        <v>3.563039155229533</v>
       </c>
       <c r="I19">
-        <v>3.192655083636489</v>
+        <v>3.045922953367561</v>
       </c>
       <c r="J19">
-        <v>11.61279711426642</v>
+        <v>11.13366427946141</v>
       </c>
       <c r="K19">
-        <v>17.85535594939995</v>
+        <v>16.3718150206874</v>
       </c>
       <c r="L19">
-        <v>6.522518920727781</v>
+        <v>12.90850032886833</v>
       </c>
       <c r="M19">
-        <v>12.92842035789349</v>
+        <v>11.33390568335565</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.535324353010517</v>
       </c>
       <c r="O19">
-        <v>12.40241764421374</v>
+        <v>13.09777023829695</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.62381713593783</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.11944673788136</v>
+        <v>13.95984734906056</v>
       </c>
       <c r="C20">
-        <v>9.624969085701441</v>
+        <v>10.50434779636006</v>
       </c>
       <c r="D20">
-        <v>7.570190166988082</v>
+        <v>8.119136992251114</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.18862274558665</v>
+        <v>28.98241365757167</v>
       </c>
       <c r="G20">
-        <v>38.05839205989732</v>
+        <v>34.30190168081004</v>
       </c>
       <c r="H20">
-        <v>2.265437881826863</v>
+        <v>2.211804483876772</v>
       </c>
       <c r="I20">
-        <v>3.071095219606448</v>
+        <v>2.944754314376526</v>
       </c>
       <c r="J20">
-        <v>12.34270887754519</v>
+        <v>11.59782247914458</v>
       </c>
       <c r="K20">
-        <v>19.18897486134156</v>
+        <v>17.31638517126765</v>
       </c>
       <c r="L20">
-        <v>7.751295737321537</v>
+        <v>13.56638804959514</v>
       </c>
       <c r="M20">
-        <v>13.08700068983291</v>
+        <v>12.13313342101121</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.732627184144306</v>
       </c>
       <c r="O20">
-        <v>14.01693563982058</v>
+        <v>13.27650873254495</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.28403847540473</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.92992351614248</v>
+        <v>14.74709689415966</v>
       </c>
       <c r="C21">
-        <v>10.22668395731742</v>
+        <v>11.07034418782659</v>
       </c>
       <c r="D21">
-        <v>8.035750150769452</v>
+        <v>8.76810046740029</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.31011555601281</v>
+        <v>29.3276104118599</v>
       </c>
       <c r="G21">
-        <v>39.48730254691051</v>
+        <v>36.50440494982671</v>
       </c>
       <c r="H21">
-        <v>1.948814896750696</v>
+        <v>1.922679958678074</v>
       </c>
       <c r="I21">
-        <v>2.843261066304307</v>
+        <v>2.759707875324656</v>
       </c>
       <c r="J21">
-        <v>12.52561439922344</v>
+        <v>10.79041975391664</v>
       </c>
       <c r="K21">
-        <v>19.48780323344888</v>
+        <v>17.116331993099</v>
       </c>
       <c r="L21">
-        <v>8.10290721346105</v>
+        <v>13.28516907667817</v>
       </c>
       <c r="M21">
-        <v>13.80973867767254</v>
+        <v>12.17509882564327</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.054048181469014</v>
       </c>
       <c r="O21">
-        <v>14.82334738703092</v>
+        <v>13.97374067988683</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.13193400483374</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.45412097292215</v>
+        <v>15.25963117628481</v>
       </c>
       <c r="C22">
-        <v>10.57019757569937</v>
+        <v>11.37720764888156</v>
       </c>
       <c r="D22">
-        <v>8.271999104138184</v>
+        <v>9.125977384551486</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.95083180269283</v>
+        <v>29.44758431359255</v>
       </c>
       <c r="G22">
-        <v>40.32946152134649</v>
+        <v>37.96283342874037</v>
       </c>
       <c r="H22">
-        <v>1.761689405566452</v>
+        <v>1.753131538021594</v>
       </c>
       <c r="I22">
-        <v>2.688023490020281</v>
+        <v>2.629316454639772</v>
       </c>
       <c r="J22">
-        <v>12.63135322295709</v>
+        <v>10.24536558147039</v>
       </c>
       <c r="K22">
-        <v>19.6630733880307</v>
+        <v>16.95428046746718</v>
       </c>
       <c r="L22">
-        <v>8.267700831155711</v>
+        <v>13.08276143476853</v>
       </c>
       <c r="M22">
-        <v>14.26226283444473</v>
+        <v>12.18382667486589</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.200472297877059</v>
       </c>
       <c r="O22">
-        <v>15.26248672026415</v>
+        <v>14.40768645880077</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.59664159547459</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.18356836980137</v>
+        <v>14.99206276635606</v>
       </c>
       <c r="C23">
-        <v>10.36155611856813</v>
+        <v>11.20635219840908</v>
       </c>
       <c r="D23">
-        <v>8.135202265113142</v>
+        <v>8.909811421771805</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.65901917648372</v>
+        <v>29.48839740876272</v>
       </c>
       <c r="G23">
-        <v>39.96774518545446</v>
+        <v>37.12724415973575</v>
       </c>
       <c r="H23">
-        <v>1.860343104191652</v>
+        <v>1.841592794220528</v>
       </c>
       <c r="I23">
-        <v>2.758396352559318</v>
+        <v>2.683267601055703</v>
       </c>
       <c r="J23">
-        <v>12.59230680103908</v>
+        <v>10.63923775829638</v>
       </c>
       <c r="K23">
-        <v>19.60906194958733</v>
+        <v>17.10817334736624</v>
       </c>
       <c r="L23">
-        <v>8.181956664665954</v>
+        <v>13.2370871557221</v>
       </c>
       <c r="M23">
-        <v>14.0183506881904</v>
+        <v>12.23399855446046</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.125396776987492</v>
       </c>
       <c r="O23">
-        <v>15.023698369349</v>
+        <v>14.17790567383662</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.34279736825071</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.10061412286814</v>
+        <v>13.93780589442036</v>
       </c>
       <c r="C24">
-        <v>9.588066128906354</v>
+        <v>10.48006914740176</v>
       </c>
       <c r="D24">
-        <v>7.618558395850545</v>
+        <v>8.172260677874094</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.46348348078947</v>
+        <v>29.23292934966972</v>
       </c>
       <c r="G24">
-        <v>38.44801757719178</v>
+        <v>34.63394083717393</v>
       </c>
       <c r="H24">
-        <v>2.242957985153827</v>
+        <v>2.189511725791792</v>
       </c>
       <c r="I24">
-        <v>3.051863659803119</v>
+        <v>2.92226530212565</v>
       </c>
       <c r="J24">
-        <v>12.42068569577792</v>
+        <v>11.67102709914397</v>
       </c>
       <c r="K24">
-        <v>19.34549423854369</v>
+        <v>17.44594714224742</v>
       </c>
       <c r="L24">
-        <v>7.845738472822671</v>
+        <v>13.66364090028476</v>
       </c>
       <c r="M24">
-        <v>13.06365818810518</v>
+        <v>12.23240497566243</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.825484606586404</v>
       </c>
       <c r="O24">
-        <v>14.09772341175698</v>
+        <v>13.25530869499485</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.36772696326615</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.83123577654141</v>
+        <v>12.73298227088483</v>
       </c>
       <c r="C25">
-        <v>8.698583705146619</v>
+        <v>9.434340403486543</v>
       </c>
       <c r="D25">
-        <v>7.025872715376151</v>
+        <v>7.508972024768873</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.15648298470032</v>
+        <v>28.28571076210636</v>
       </c>
       <c r="G25">
-        <v>36.79485559948553</v>
+        <v>33.44245321026239</v>
       </c>
       <c r="H25">
-        <v>2.672756924466279</v>
+        <v>2.593515465340867</v>
       </c>
       <c r="I25">
-        <v>3.383568676068486</v>
+        <v>3.207863730925239</v>
       </c>
       <c r="J25">
-        <v>12.24589506273116</v>
+        <v>11.64196107472403</v>
       </c>
       <c r="K25">
-        <v>19.07342558965589</v>
+        <v>17.43696493521022</v>
       </c>
       <c r="L25">
-        <v>7.465317120865514</v>
+        <v>13.85532967354126</v>
       </c>
       <c r="M25">
-        <v>11.95360986802727</v>
+        <v>11.97328032808807</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.472570488555171</v>
       </c>
       <c r="O25">
-        <v>13.03456109261651</v>
+        <v>12.13313140486155</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>13.27014270694466</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
